--- a/INTLINE/output/INTLINE_keytest.xlsx
+++ b/INTLINE/output/INTLINE_keytest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P95"/>
+  <dimension ref="A1:P135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A548BNMQN2.A</t>
+          <t>A548BNMQN11.A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Agriculture, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Changes in Inventories and Valuables, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Agriculture</t>
+          <t>Changes in Inventories and Acquisitions less Disposals of Valuables</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A548BNMQN23.A</t>
+          <t>A548BNMQN12.A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Transport and Storage, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Fixed Capital Formation, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="J22" t="n">
         <v>2021</v>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Transport, Storage and Communication</t>
+          <t>Gross Fixed Capital Formation (Fixed Investment)</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A548BNMQN24.A</t>
+          <t>A548BNMQN13.A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Information and Communication, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Exports of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="J23" t="n">
         <v>2021</v>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Transport, Storage and Communication</t>
+          <t>Exports of Goods and Services</t>
         </is>
       </c>
       <c r="M23" t="n">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A548BNMQN27.A</t>
+          <t>A548BNMQN14.A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Government Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Imports of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Public Administration, Defence, Education, Human Health and Social Work</t>
+          <t>Imports of Goods and Services</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A548BNMQN28.A</t>
+          <t>A548BNMQN15.A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Other Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Other Service Activities and Activities of Households as Employers</t>
+          <t>Final Consumption Expenditure (Total Consumption)</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A548BNMQN3.A</t>
+          <t>A548BNMQN18.A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Mining and Quarrying, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Fixed Capital Formation, Private Sector, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="J26" t="n">
         <v>2021</v>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Mining and Quarrying</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -2304,7 +2304,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A548BNMQN35.A</t>
+          <t>A548BNMQN19.A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Electricity and Gas, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Fixed Capital Formation, Public Sector, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2005</v>
+        <v>1990</v>
       </c>
       <c r="J27" t="n">
         <v>2021</v>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Electricity, Gas and Water</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A548BNMQN36.A</t>
+          <t>A548BNMQN1a.A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Water, Sewerage and Waste Management, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Private Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2005</v>
+        <v>1991</v>
       </c>
       <c r="J28" t="n">
         <v>2021</v>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Electricity, Gas and Water</t>
+          <t>Private Consumption (Households and NPiSHs)</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A548BNMQN37.A</t>
+          <t>A548BNMQN2.A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Wholesale Trade, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Agriculture, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2005</v>
+        <v>1991</v>
       </c>
       <c r="J29" t="n">
         <v>2021</v>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
+          <t>Agriculture</t>
         </is>
       </c>
       <c r="M29" t="n">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A548BNMQN38.A</t>
+          <t>A548BNMQN23.A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Retail Trade, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Transport and Storage, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="J30" t="n">
         <v>2021</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
+          <t>Transport, Storage and Communication</t>
         </is>
       </c>
       <c r="M30" t="n">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A548BNMQN39.A</t>
+          <t>A548BNMQN24.A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Accommodation, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Information and Communication, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2629,7 +2629,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="J31" t="n">
         <v>2021</v>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Accommodation and Food Service Activities</t>
+          <t>Transport, Storage and Communication</t>
         </is>
       </c>
       <c r="M31" t="n">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A548BNMQN4.A</t>
+          <t>A548BNMQN27.A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Manufacturing, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Government Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>Public Administration, Defence, Education, Human Health and Social Work</t>
         </is>
       </c>
       <c r="M32" t="n">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A548BNMQN41.A</t>
+          <t>A548BNMQN28.A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Finance, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Other Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2777,7 +2777,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2005</v>
+        <v>1991</v>
       </c>
       <c r="J33" t="n">
         <v>2021</v>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Financial and Insurance Activities</t>
+          <t>Other Service Activities and Activities of Households as Employers</t>
         </is>
       </c>
       <c r="M33" t="n">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A548BNMQN42.A</t>
+          <t>A548BNMQN3.A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Insurance, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Mining and Quarrying, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2005</v>
+        <v>1991</v>
       </c>
       <c r="J34" t="n">
         <v>2021</v>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Financial and Insurance Activities</t>
+          <t>Mining and Quarrying</t>
         </is>
       </c>
       <c r="M34" t="n">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A548BNMQN4a.A</t>
+          <t>A548BNMQN35.A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Food and Beverage, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Electricity and Gas, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Food Products, Beverages and Tobacco</t>
+          <t>Electricity, Gas and Water</t>
         </is>
       </c>
       <c r="M35" t="n">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A548BNMQN5.A</t>
+          <t>A548BNMQN36.A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Construction, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Water, Sewerage and Waste Management, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2999,7 +2999,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1991</v>
+        <v>2005</v>
       </c>
       <c r="J36" t="n">
         <v>2021</v>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Electricity, Gas and Water</t>
         </is>
       </c>
       <c r="M36" t="n">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A548BNMQN6.A</t>
+          <t>A548BNMQN37.A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Wholesale Trade, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3073,7 +3073,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="J37" t="n">
         <v>2021</v>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
         </is>
       </c>
       <c r="M37" t="n">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A548BNMQN8.A</t>
+          <t>A548BNMQN38.A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Import Duties, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Retail Trade, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1991</v>
+        <v>2005</v>
       </c>
       <c r="J38" t="n">
         <v>2021</v>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Taxes less Subsidies on Products</t>
+          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
         </is>
       </c>
       <c r="M38" t="n">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A548BNMVN1.A</t>
+          <t>A548BNMQN39.A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Domestic Product, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Accommodation, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1955</v>
+        <v>2005</v>
       </c>
       <c r="J39" t="n">
         <v>2021</v>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Gross Domestic Product</t>
+          <t>Accommodation and Food Service Activities</t>
         </is>
       </c>
       <c r="M39" t="n">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>A548BNMVN2.A</t>
+          <t>A548BNMQN4.A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Agriculture, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Manufacturing, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="J40" t="n">
         <v>2021</v>
@@ -3307,7 +3307,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Agriculture</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="M40" t="n">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A548BNMVN26.A</t>
+          <t>A548BNMQN41.A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Transport and Storage, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Finance, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3369,7 +3369,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="J41" t="n">
         <v>2021</v>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Transport, Storage and Communication</t>
+          <t>Financial and Insurance Activities</t>
         </is>
       </c>
       <c r="M41" t="n">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A548BNMVN27.A</t>
+          <t>A548BNMQN42.A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Information and Communication, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Insurance, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3443,7 +3443,7 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="J42" t="n">
         <v>2021</v>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Transport, Storage and Communication</t>
+          <t>Financial and Insurance Activities</t>
         </is>
       </c>
       <c r="M42" t="n">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>A548BNMVN3.A</t>
+          <t>A548BNMQN4a.A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Mining and Quarrying, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Food and Beverage, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1987</v>
+        <v>2005</v>
       </c>
       <c r="J43" t="n">
         <v>2021</v>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Mining and Quarrying</t>
+          <t>Food Products, Beverages and Tobacco</t>
         </is>
       </c>
       <c r="M43" t="n">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>A548BNMVN31.A</t>
+          <t>A548BNMQN5.A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Other Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Construction, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Other Service Activities and Activities of Households as Employers</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>A548BNMVN32.A</t>
+          <t>A548BNMQN6.A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Electricity and Gas, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="J45" t="n">
         <v>2021</v>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Electricity, Gas and Water</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="M45" t="n">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>A548BNMVN33.A</t>
+          <t>A548BNMQN8.A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Water, Sewerage and Waste Management, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Import Duties, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2005</v>
+        <v>1991</v>
       </c>
       <c r="J46" t="n">
         <v>2021</v>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Electricity, Gas and Water</t>
+          <t>Taxes less Subsidies on Products</t>
         </is>
       </c>
       <c r="M46" t="n">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>A548BNMVN34.A</t>
+          <t>A548BNMQN9.A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Wholesale Trade, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Government Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3813,7 +3813,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2005</v>
+        <v>1991</v>
       </c>
       <c r="J47" t="n">
         <v>2021</v>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
+          <t>Government Consumption</t>
         </is>
       </c>
       <c r="M47" t="n">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>A548BNMVN35.A</t>
+          <t>A548BNMQZ1.A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Retail Trade, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Demographic Indicators, Mid Year Population, Not Seasonally Adjusted, Unit: Thousands of Persons, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3887,19 +3887,19 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2005</v>
+        <v>1948</v>
       </c>
       <c r="J48" t="n">
         <v>2021</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Thousands of Persons</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
+          <t>Population</t>
         </is>
       </c>
       <c r="M48" t="n">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Demographic Indicators</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -3932,7 +3932,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>A548BNMVN36.A</t>
+          <t>A548BNMVN1.A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Accommodation, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Domestic Product, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2005</v>
+        <v>1955</v>
       </c>
       <c r="J49" t="n">
         <v>2021</v>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Accommodation and Food Service Activities</t>
+          <t>Gross Domestic Product</t>
         </is>
       </c>
       <c r="M49" t="n">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>A548BNMVN37.A</t>
+          <t>A548BNMVN11.A</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Food and Beverage, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Changes in Inventories and Valuables, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -4035,7 +4035,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2005</v>
+        <v>1955</v>
       </c>
       <c r="J50" t="n">
         <v>2021</v>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Food Products, Beverages and Tobacco</t>
+          <t>Changes in Inventories and Acquisitions less Disposals of Valuables</t>
         </is>
       </c>
       <c r="M50" t="n">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>A548BNMVN38.A</t>
+          <t>A548BNMVN12.A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Finance, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4109,7 +4109,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2005</v>
+        <v>1955</v>
       </c>
       <c r="J51" t="n">
         <v>2021</v>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Financial and Insurance Activities</t>
+          <t>Gross Fixed Capital Formation (Fixed Investment)</t>
         </is>
       </c>
       <c r="M51" t="n">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>A548BNMVN39.A</t>
+          <t>A548BNMVN13.A</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Insurance, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Exports of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -4183,7 +4183,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2005</v>
+        <v>1955</v>
       </c>
       <c r="J52" t="n">
         <v>2021</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Financial and Insurance Activities</t>
+          <t>Exports of Goods and Services</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>A548BNMVN3a.A</t>
+          <t>A548BNMVN14.A</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Government Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Imports of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1991</v>
+        <v>1955</v>
       </c>
       <c r="J53" t="n">
         <v>2021</v>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Public Administration, Defence, Education, Human Health and Social Work</t>
+          <t>Imports of Goods and Services</t>
         </is>
       </c>
       <c r="M53" t="n">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>A548BNMVN4.A</t>
+          <t>A548BNMVN15.A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Manufacturing, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4331,7 +4331,7 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1987</v>
+        <v>1955</v>
       </c>
       <c r="J54" t="n">
         <v>2021</v>
@@ -4343,7 +4343,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>Final Consumption Expenditure (Total Consumption)</t>
         </is>
       </c>
       <c r="M54" t="n">
@@ -4376,7 +4376,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>A548BNMVN5.A</t>
+          <t>A548BNMVN17.A</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Construction, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross National Income, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4405,7 +4405,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1987</v>
+        <v>2000</v>
       </c>
       <c r="J55" t="n">
         <v>2021</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Gross National Income</t>
         </is>
       </c>
       <c r="M55" t="n">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>A548BNMVN6.A</t>
+          <t>A548BNMVN19.A</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross National Savings, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Gross National Saving</t>
         </is>
       </c>
       <c r="M56" t="n">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>A548BNMVN8.A</t>
+          <t>A548BNMVN1a.A</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Import Duties, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Private Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -4553,7 +4553,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1987</v>
+        <v>1955</v>
       </c>
       <c r="J57" t="n">
         <v>2021</v>
@@ -4565,7 +4565,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Taxes less Subsidies on Products</t>
+          <t>Private Consumption (Households and NPiSHs)</t>
         </is>
       </c>
       <c r="M57" t="n">
@@ -4598,22 +4598,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Q548BNMQN1.Q</t>
+          <t>A548BNMVN2.A</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>data001</t>
+          <t>data057</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Domestic Product, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Agriculture, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4623,18 +4623,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>1991-Q1</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1987</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2021</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -4643,7 +4639,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Gross Domestic Product</t>
+          <t>Agriculture</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -4676,22 +4672,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Q548BNMQN2.Q</t>
+          <t>A548BNMVN21.A</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>data002</t>
+          <t>data058</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Agriculture, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Private Sector, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4701,18 +4697,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>1991-Q1</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1989</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2021</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -4721,7 +4713,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Agriculture</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="M59" t="n">
@@ -4754,22 +4746,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Q548BNMQN21.Q</t>
+          <t>A548BNMVN22.A</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>data003</t>
+          <t>data059</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Transport and Storage, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Public Sector, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4779,18 +4771,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>2000-Q1</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1973</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2021</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -4799,7 +4787,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Transport, Storage and Communication</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="M60" t="n">
@@ -4832,22 +4820,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Q548BNMQN22.Q</t>
+          <t>A548BNMVN26.A</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>data004</t>
+          <t>data060</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Information and Communication, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Transport and Storage, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4857,18 +4845,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>2000-Q1</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2021</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -4910,22 +4894,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Q548BNMQN25.Q</t>
+          <t>A548BNMVN27.A</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>data005</t>
+          <t>data061</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Government Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Information and Communication, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4935,18 +4919,14 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>1991-Q1</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2021</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -4955,7 +4935,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Public Administration, Defence, Education, Human Health and Social Work</t>
+          <t>Transport, Storage and Communication</t>
         </is>
       </c>
       <c r="M62" t="n">
@@ -4988,22 +4968,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Q548BNMQN26.Q</t>
+          <t>A548BNMVN3.A</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>data006</t>
+          <t>data062</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Other Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Mining and Quarrying, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -5013,18 +4993,14 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>1991-Q1</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1987</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2021</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -5033,7 +5009,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Other Service Activities and Activities of Households as Employers</t>
+          <t>Mining and Quarrying</t>
         </is>
       </c>
       <c r="M63" t="n">
@@ -5066,22 +5042,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Q548BNMQN27.Q</t>
+          <t>A548BNMVN31.A</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>data007</t>
+          <t>data063</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Electricity and Gas, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Other Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -5091,18 +5067,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>2005-Q1</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1991</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2021</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -5111,7 +5083,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Electricity, Gas and Water</t>
+          <t>Other Service Activities and Activities of Households as Employers</t>
         </is>
       </c>
       <c r="M64" t="n">
@@ -5144,22 +5116,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Q548BNMQN28.Q</t>
+          <t>A548BNMVN32.A</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>data008</t>
+          <t>data064</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Water, Sewerage and Waste Management, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Electricity and Gas, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -5169,18 +5141,14 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>2005-Q1</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>2005</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2021</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -5222,22 +5190,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Q548BNMQN29.Q</t>
+          <t>A548BNMVN33.A</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>data009</t>
+          <t>data065</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Wholesale Trade, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Water, Sewerage and Waste Management, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -5247,18 +5215,14 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>2005-Q1</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>2005</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2021</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -5267,7 +5231,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
+          <t>Electricity, Gas and Water</t>
         </is>
       </c>
       <c r="M66" t="n">
@@ -5300,22 +5264,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Q548BNMQN3.Q</t>
+          <t>A548BNMVN34.A</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>data010</t>
+          <t>data066</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Mining and Quarrying, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Wholesale Trade, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -5325,18 +5289,14 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>1991-Q1</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>2005</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2021</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -5345,7 +5305,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Mining and Quarrying</t>
+          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
         </is>
       </c>
       <c r="M67" t="n">
@@ -5378,22 +5338,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Q548BNMQN31.Q</t>
+          <t>A548BNMVN35.A</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>data011</t>
+          <t>data067</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Accommodation, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Retail Trade, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -5403,18 +5363,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>2005-Q1</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>2005</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2021</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -5423,7 +5379,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Accommodation and Food Service Activities</t>
+          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
         </is>
       </c>
       <c r="M68" t="n">
@@ -5456,22 +5412,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Q548BNMQN32.Q</t>
+          <t>A548BNMVN36.A</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>data012</t>
+          <t>data068</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Food and Beverage, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Accommodation, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -5481,18 +5437,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>2005-Q1</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>2005</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2021</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -5501,7 +5453,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Food Products, Beverages and Tobacco</t>
+          <t>Accommodation and Food Service Activities</t>
         </is>
       </c>
       <c r="M69" t="n">
@@ -5534,22 +5486,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Q548BNMQN33.Q</t>
+          <t>A548BNMVN37.A</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>data013</t>
+          <t>data069</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Finance, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Food and Beverage, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -5559,18 +5511,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>2005-Q1</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>2005</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2021</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -5579,7 +5527,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Financial and Insurance Activities</t>
+          <t>Food Products, Beverages and Tobacco</t>
         </is>
       </c>
       <c r="M70" t="n">
@@ -5612,22 +5560,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Q548BNMQN34.Q</t>
+          <t>A548BNMVN38.A</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>data014</t>
+          <t>data070</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Insurance, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Finance, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5637,18 +5585,14 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>2005-Q1</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>2005</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2021</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -5690,22 +5634,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Q548BNMQN3a.Q</t>
+          <t>A548BNMVN39.A</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>data015</t>
+          <t>data071</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Retail Trade, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Insurance, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -5715,18 +5659,14 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>2005-Q1</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>2005</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2021</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -5735,7 +5675,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
+          <t>Financial and Insurance Activities</t>
         </is>
       </c>
       <c r="M72" t="n">
@@ -5768,22 +5708,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Q548BNMQN4.Q</t>
+          <t>A548BNMVN3a.A</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>data016</t>
+          <t>data072</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Manufacturing, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Government Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -5793,18 +5733,14 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>1991-Q1</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1991</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2021</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -5813,7 +5749,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>Public Administration, Defence, Education, Human Health and Social Work</t>
         </is>
       </c>
       <c r="M73" t="n">
@@ -5846,22 +5782,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Q548BNMQN5.Q</t>
+          <t>A548BNMVN4.A</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>data017</t>
+          <t>data073</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Construction, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Manufacturing, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -5871,18 +5807,14 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>1991-Q1</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1987</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2021</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -5891,7 +5823,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -5924,22 +5856,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Q548BNMQN6.Q</t>
+          <t>A548BNMVN5.A</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>data018</t>
+          <t>data074</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Construction, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5949,18 +5881,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>2000-Q1</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1987</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2021</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -5969,7 +5897,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="M75" t="n">
@@ -6002,22 +5930,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Q548BNMQN8.Q</t>
+          <t>A548BNMVN6.A</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>data019</t>
+          <t>data075</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Import Duties, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -6027,18 +5955,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>1991-Q1</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1987</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2021</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -6047,7 +5971,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Taxes less Subsidies on Products</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="M76" t="n">
@@ -6080,22 +6004,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Q548BNMVN1.Q</t>
+          <t>A548BNMVN8.A</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>data020</t>
+          <t>data076</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Domestic Product, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Import Duties, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -6105,18 +6029,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>1991-Q1</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1987</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2021</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -6125,7 +6045,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Gross Domestic Product</t>
+          <t>Taxes less Subsidies on Products</t>
         </is>
       </c>
       <c r="M77" t="n">
@@ -6158,22 +6078,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Q548BNMVN2.Q</t>
+          <t>A548BNMVN9.A</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>data021</t>
+          <t>data077</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Agriculture, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Government Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -6183,18 +6103,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>1991-Q1</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1955</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2021</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -6203,7 +6119,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Agriculture</t>
+          <t>Government Consumption</t>
         </is>
       </c>
       <c r="M78" t="n">
@@ -6236,22 +6152,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Q548BNMVN24.Q</t>
+          <t>A548DSMLF1.A</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>data022</t>
+          <t>data078</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Transport and Storage, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Labour Market, Labour Force, Not Seasonally Adjusted, Unit: Thousands of Persons, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -6261,27 +6177,23 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>2000-Q1</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1982</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2021</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Thousands of Persons</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Transport, Storage and Communication</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="M79" t="n">
@@ -6289,12 +6201,12 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Labour Market</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6314,22 +6226,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Q548BNMVN25.Q</t>
+          <t>A548DSMLF2.A</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>data023</t>
+          <t>data079</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Information and Communication, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Labour Market, Employed, Not Seasonally Adjusted, Unit: Thousands of Persons, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -6339,27 +6251,23 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>2000-Q1</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1982</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2021</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Thousands of Persons</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Transport, Storage and Communication</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="M80" t="n">
@@ -6367,12 +6275,12 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Labour Market</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6392,22 +6300,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Q548BNMVN28.Q</t>
+          <t>A548DSMLF3.A</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>data024</t>
+          <t>data080</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Government Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Labour Market, Unemployed, Not Seasonally Adjusted, Unit: Thousands of Persons, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -6417,27 +6325,23 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>1991-Q1</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1982</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2021</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Thousands of Persons</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Public Administration, Defence, Education, Human Health and Social Work</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="M81" t="n">
@@ -6445,12 +6349,12 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Labour Market</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -6470,22 +6374,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Q548BNMVN29.Q</t>
+          <t>A548DSMLF4.A</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>data025</t>
+          <t>data081</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Other Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Labour Market, Unemployment Rate, Not Seasonally Adjusted, Unit: Percentage, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -6495,27 +6399,23 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>1991-Q1</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1982</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2021</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Percentage</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Other Service Activities and Activities of Households as Employers</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="M82" t="n">
@@ -6523,12 +6423,12 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Labour Market</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6548,7 +6448,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Q548BNMVN3.Q</t>
+          <t>Q548BNMBOP17.Q</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -6558,12 +6458,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>data026</t>
+          <t>data001</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Mining and Quarrying, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, External Sector, Balance of Payments, Current Account, Net (BPM6), Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -6578,7 +6478,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>2010-Q1</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -6593,7 +6493,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Mining and Quarrying</t>
+          <t>Current Account</t>
         </is>
       </c>
       <c r="M83" t="n">
@@ -6606,7 +6506,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>External Sector</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -6626,7 +6526,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Q548BNMVN31.Q</t>
+          <t>Q548BNMQN1.Q</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -6636,12 +6536,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>data027</t>
+          <t>data002</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Water, Sewerage and Waste Management, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Domestic Product, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -6656,7 +6556,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2005-Q1</t>
+          <t>1991-Q1</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -6671,7 +6571,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Electricity, Gas and Water</t>
+          <t>Gross Domestic Product</t>
         </is>
       </c>
       <c r="M84" t="n">
@@ -6704,7 +6604,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Q548BNMVN32.Q</t>
+          <t>Q548BNMQN11.Q</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -6714,12 +6614,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>data028</t>
+          <t>data003</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Wholesale Trade, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Changes in Inventories and Valuables, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -6734,7 +6634,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2005-Q1</t>
+          <t>1991-Q1</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -6749,7 +6649,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
+          <t>Changes in Inventories and Acquisitions less Disposals of Valuables</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -6782,7 +6682,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Q548BNMVN33.Q</t>
+          <t>Q548BNMQN12.Q</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -6792,12 +6692,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>data029</t>
+          <t>data004</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Retail Trade, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Fixed Capital Formation, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -6812,7 +6712,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2005-Q1</t>
+          <t>1991-Q1</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -6827,7 +6727,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
+          <t>Gross Fixed Capital Formation (Fixed Investment)</t>
         </is>
       </c>
       <c r="M86" t="n">
@@ -6860,7 +6760,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Q548BNMVN34.Q</t>
+          <t>Q548BNMQN13.Q</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -6870,12 +6770,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>data030</t>
+          <t>data005</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Accommodation, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Export of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -6890,7 +6790,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2005-Q1</t>
+          <t>1991-Q1</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6905,7 +6805,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Accommodation and Food Service Activities</t>
+          <t>Exports of Goods and Services</t>
         </is>
       </c>
       <c r="M87" t="n">
@@ -6938,7 +6838,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Q548BNMVN35.Q</t>
+          <t>Q548BNMQN14.Q</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -6948,12 +6848,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>data031</t>
+          <t>data006</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Food and Beverage, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Import of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -6968,7 +6868,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2005-Q1</t>
+          <t>1991-Q1</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6983,7 +6883,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Food Products, Beverages and Tobacco</t>
+          <t>Imports of Goods and Services</t>
         </is>
       </c>
       <c r="M88" t="n">
@@ -7016,7 +6916,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Q548BNMVN36.Q</t>
+          <t>Q548BNMQN15.Q</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -7026,12 +6926,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>data032</t>
+          <t>data007</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Finance, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -7046,7 +6946,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2005-Q1</t>
+          <t>1991-Q1</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -7061,7 +6961,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Financial and Insurance Activities</t>
+          <t>Final Consumption Expenditure (Total Consumption)</t>
         </is>
       </c>
       <c r="M89" t="n">
@@ -7094,7 +6994,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Q548BNMVN37.Q</t>
+          <t>Q548BNMQN1a.Q</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -7104,12 +7004,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>data033</t>
+          <t>data008</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Insurance, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Private Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -7124,7 +7024,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2005-Q1</t>
+          <t>1991-Q1</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -7139,7 +7039,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Financial and Insurance Activities</t>
+          <t>Private Consumption (Households and NPiSHs)</t>
         </is>
       </c>
       <c r="M90" t="n">
@@ -7172,7 +7072,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Q548BNMVN3a.Q</t>
+          <t>Q548BNMQN2.Q</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -7182,12 +7082,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>data034</t>
+          <t>data009</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Electricity and Gas, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Agriculture, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -7202,7 +7102,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2005-Q1</t>
+          <t>1991-Q1</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -7217,7 +7117,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Electricity, Gas and Water</t>
+          <t>Agriculture</t>
         </is>
       </c>
       <c r="M91" t="n">
@@ -7250,7 +7150,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Q548BNMVN4.Q</t>
+          <t>Q548BNMQN21.Q</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -7260,12 +7160,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>data035</t>
+          <t>data010</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Manufacturing, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Transport and Storage, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -7280,7 +7180,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>2000-Q1</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -7295,7 +7195,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>Transport, Storage and Communication</t>
         </is>
       </c>
       <c r="M92" t="n">
@@ -7328,7 +7228,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Q548BNMVN5.Q</t>
+          <t>Q548BNMQN22.Q</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -7338,12 +7238,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>data036</t>
+          <t>data011</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Construction, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Information and Communication, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -7358,7 +7258,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>2000-Q1</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -7373,7 +7273,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Transport, Storage and Communication</t>
         </is>
       </c>
       <c r="M93" t="n">
@@ -7406,7 +7306,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Q548BNMVN6.Q</t>
+          <t>Q548BNMQN25.Q</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -7416,12 +7316,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>data037</t>
+          <t>data012</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Government Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -7436,7 +7336,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2000-Q1</t>
+          <t>1991-Q1</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -7451,7 +7351,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Public Administration, Defence, Education, Human Health and Social Work</t>
         </is>
       </c>
       <c r="M94" t="n">
@@ -7484,7 +7384,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Q548BNMVN8.Q</t>
+          <t>Q548BNMQN26.Q</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -7494,12 +7394,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>data038</t>
+          <t>data013</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Import Duties, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Other Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -7529,7 +7429,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Taxes less Subsidies on Products</t>
+          <t>Other Service Activities and Activities of Households as Employers</t>
         </is>
       </c>
       <c r="M95" t="n">
@@ -7546,6 +7446,3126 @@
         </is>
       </c>
       <c r="P95" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Q548BNMQN27.Q</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>data014</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Electricity and Gas, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Electricity, Gas and Water</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>95</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Q548BNMQN28.Q</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>data015</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Water, Sewerage and Waste Management, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Electricity, Gas and Water</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>96</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Q548BNMQN29.Q</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>data016</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Wholesale Trade, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>97</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Q548BNMQN3.Q</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>data017</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Mining and Quarrying, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Mining and Quarrying</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>98</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Q548BNMQN31.Q</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>data018</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Accommodation, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Accommodation and Food Service Activities</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>99</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Q548BNMQN32.Q</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>data019</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Food and Beverage, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Food Products, Beverages and Tobacco</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>100</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Q548BNMQN33.Q</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>data020</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Finance, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Financial and Insurance Activities</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>101</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Q548BNMQN34.Q</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>data021</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Insurance, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Financial and Insurance Activities</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>102</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Q548BNMQN3a.Q</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>data022</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Retail Trade, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>103</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Q548BNMQN4.Q</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>data023</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Manufacturing, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>104</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Q548BNMQN5.Q</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>data024</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Construction, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>105</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Q548BNMQN6.Q</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>data025</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>106</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Q548BNMQN8.Q</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>data026</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Real Import Duties, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Taxes less Subsidies on Products</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>107</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Q548BNMQN9.Q</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>data027</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Real Government Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Government Consumption</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>108</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Q548BNMVN1.Q</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>data028</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Domestic Product, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Gross Domestic Product</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>109</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Q548BNMVN11.Q</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>data029</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Changes in Inventories and Valuables, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Changes in Inventories and Acquisitions less Disposals of Valuables</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>110</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Q548BNMVN12.Q</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>data030</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (Fixed Investment)</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>111</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Q548BNMVN13.Q</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>data031</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Export of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Exports of Goods and Services</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>112</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Q548BNMVN14.Q</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>data032</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Import of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Imports of Goods and Services</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>113</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Q548BNMVN15.Q</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>data033</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Final Consumption Expenditure (Total Consumption)</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>114</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Q548BNMVN1a.Q</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>data034</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Private Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Private Consumption (Households and NPiSHs)</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>115</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Q548BNMVN2.Q</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>data035</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Agriculture, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>116</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Q548BNMVN24.Q</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>data036</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Transport and Storage, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Transport, Storage and Communication</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>117</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Q548BNMVN25.Q</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>data037</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Information and Communication, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Transport, Storage and Communication</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>118</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Q548BNMVN28.Q</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>data038</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Government Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Public Administration, Defence, Education, Human Health and Social Work</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>119</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Q548BNMVN29.Q</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>data039</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Other Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Other Service Activities and Activities of Households as Employers</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>120</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Q548BNMVN3.Q</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>data040</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Mining and Quarrying, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Mining and Quarrying</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>121</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Q548BNMVN31.Q</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>data041</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Water, Sewerage and Waste Management, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Electricity, Gas and Water</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>122</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Q548BNMVN32.Q</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>data042</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Wholesale Trade, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>123</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Q548BNMVN33.Q</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>data043</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Retail Trade, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>124</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Q548BNMVN34.Q</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>data044</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Accommodation, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Accommodation and Food Service Activities</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>125</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Q548BNMVN35.Q</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>data045</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Food and Beverage, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Food Products, Beverages and Tobacco</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>126</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Q548BNMVN36.Q</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>data046</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Finance, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Financial and Insurance Activities</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>127</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Q548BNMVN37.Q</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>data047</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Insurance, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Financial and Insurance Activities</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>128</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Q548BNMVN3a.Q</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>data048</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Electricity and Gas, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Electricity, Gas and Water</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>129</v>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Q548BNMVN4.Q</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>data049</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Manufacturing, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>130</v>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Q548BNMVN5.Q</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>data050</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Construction, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>131</v>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Q548BNMVN6.Q</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>data051</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>132</v>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Q548BNMVN8.Q</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>data052</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Import Duties, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Taxes less Subsidies on Products</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>133</v>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Q548BNMVN9.Q</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>data053</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Government Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Government Consumption</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>134</v>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
         <is>
           <t>Not Seasonally Adjusted</t>
         </is>

--- a/INTLINE/output/INTLINE_keytest.xlsx
+++ b/INTLINE/output/INTLINE_keytest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P198"/>
+  <dimension ref="A1:P221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9376,7 +9376,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>M548DSMCPI15.M</t>
+          <t>M548BNMRIBT1.M</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, Prices, Consumer Price Index, CPI: Durable Goods, Not Seasonally Adjusted, Unit: Index: 2010=100, Source: Department of Statistics, Malaysia</t>
+          <t>Malaysia National Statistics, Interest Rates and Bond Yields, Average Discount Rate on Treasury Bills, 3 Months, Not Seasonally Adjusted, Unit: Percent per Annum (year), Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -9406,22 +9406,22 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>1999-11</t>
+          <t>1966-01</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Index: 2010=100</t>
+          <t>Percent per Annum (year)</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Consumer Goods</t>
+          <t>Discount Rate</t>
         </is>
       </c>
       <c r="M121" t="n">
@@ -9429,12 +9429,12 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>Department of Statistics, Malaysia</t>
+          <t>Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Prices</t>
+          <t>Interest Rates and Bond Yields</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
@@ -9454,7 +9454,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>M548DSMCPI16.M</t>
+          <t>M548BNMRIM1.M</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, Prices, Consumer Price Index, CPI: Semi Durable Goods, Not Seasonally Adjusted, Unit: Index: 2010=100, Source: Department of Statistics, Malaysia</t>
+          <t>Malaysia National Statistics, Interest Rates and Bond Yields, Weighted Average Overnight Money Rate, Not Seasonally Adjusted, Unit: Percent per Annum (year), Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>1999-11</t>
+          <t>1984-12</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -9494,12 +9494,12 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Index: 2010=100</t>
+          <t>Percent per Annum (year)</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Consumer Goods</t>
+          <t>Other Interbank Rates</t>
         </is>
       </c>
       <c r="M122" t="n">
@@ -9507,12 +9507,12 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>Department of Statistics, Malaysia</t>
+          <t>Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Prices</t>
+          <t>Interest Rates and Bond Yields</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>M548DSMCPI17.M</t>
+          <t>M548BNMVGC1.M</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, Prices, Consumer Price Index, CPI: Non Durable Goods, Not Seasonally Adjusted, Unit: Index: 2010=100, Source: Department of Statistics, Malaysia</t>
+          <t>Malaysia National Statistics, Government Finance, Central Government, Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>1999-11</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -9572,12 +9572,12 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Index: 2010=100</t>
+          <t>Millions of Malaysian Ringgit</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Consumer Goods</t>
+          <t>Expenditure</t>
         </is>
       </c>
       <c r="M123" t="n">
@@ -9585,12 +9585,12 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>Department of Statistics, Malaysia</t>
+          <t>Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Prices</t>
+          <t>Government Finance</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -9610,7 +9610,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>M548DSMCPI18.M</t>
+          <t>M548BNMVGC2.M</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, Prices, Consumer Price Index, CPI: Services, Not Seasonally Adjusted, Unit: Index: 2010=100, Source: Department of Statistics, Malaysia</t>
+          <t>Malaysia National Statistics, Government Finance, Central Government, Revenue, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>1999-11</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -9650,12 +9650,12 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Index: 2010=100</t>
+          <t>Millions of Malaysian Ringgit</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Revenue</t>
         </is>
       </c>
       <c r="M124" t="n">
@@ -9663,12 +9663,12 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>Department of Statistics, Malaysia</t>
+          <t>Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Prices</t>
+          <t>Government Finance</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>M548DSMIC1.M</t>
+          <t>M548BNMVMA1.M</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -9703,7 +9703,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, Surveys and Cyclical Indicators, Composite Index, Coincident Index, Not Seasonally Adjusted, Unit: Index: 2015=100, Source: Department of Statistics, Malaysia</t>
+          <t>Malaysia National Statistics, Money and Banking, Central Bank, Assets, Gold and Foreign Exchange, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -9718,22 +9718,22 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>1991-01</t>
+          <t>1970-12</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Index: 2015=100</t>
+          <t>Millions of Malaysian Ringgit</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Coincident Index</t>
+          <t>Cash and Cash Equivalents</t>
         </is>
       </c>
       <c r="M125" t="n">
@@ -9741,12 +9741,12 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>Department of Statistics, Malaysia</t>
+          <t>Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Surveys and Cyclical Indicators</t>
+          <t>Money and Banking</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>M548DSMIC2.M</t>
+          <t>M548BNMVR1.M</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, Surveys and Cyclical Indicators, Composite Index, Leading Index, Not Seasonally Adjusted, Unit: Index: 2015=100, Source: Department of Statistics, Malaysia</t>
+          <t>Malaysia National Statistics, External Sector, External Reserves, Gross International Reserves, Special Drawing Rights, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -9796,22 +9796,22 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>1991-01</t>
+          <t>1970-12</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Index: 2015=100</t>
+          <t>Millions of Malaysian Ringgit</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Leading Index</t>
+          <t>Special Drawing Rights</t>
         </is>
       </c>
       <c r="M126" t="n">
@@ -9819,12 +9819,12 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>Department of Statistics, Malaysia</t>
+          <t>Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Surveys and Cyclical Indicators</t>
+          <t>External Sector</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>M548DSMIC3.M</t>
+          <t>M548BNMVR2.M</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, Surveys and Cyclical Indicators, Composite Index, Lagging Index, Not Seasonally Adjusted, Unit: Index: 2015=100, Source: Department of Statistics, Malaysia</t>
+          <t>Malaysia National Statistics, External Sector, External Reserves, Gross International Reserves, IMF Reserve Position, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -9874,22 +9874,22 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>1991-01</t>
+          <t>1970-12</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Index: 2015=100</t>
+          <t>Millions of Malaysian Ringgit</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Lagging Index</t>
+          <t>Reserve Position in the IMF</t>
         </is>
       </c>
       <c r="M127" t="n">
@@ -9897,12 +9897,12 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>Department of Statistics, Malaysia</t>
+          <t>Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Surveys and Cyclical Indicators</t>
+          <t>External Sector</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
@@ -9922,7 +9922,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>M548DSMIPI16.M</t>
+          <t>M548BNMVR4.M</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -9937,7 +9937,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, Industry, Industrial Production Index, Manufacture of Products of Wood, Cork, Straw and Plaiting Materials, Not Seasonally Adjusted, Unit: Index: 2015=100, Source: Department of Statistics, Malaysia</t>
+          <t>Malaysia National Statistics, External Sector, External Reserves, Gross International Reserves, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -9952,7 +9952,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>1994-01</t>
+          <t>1970-12</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -9962,12 +9962,12 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Index: 2015=100</t>
+          <t>Millions of Malaysian Ringgit</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Wood and Wood Products excluding Furniture</t>
+          <t>Offical Reserve Assets</t>
         </is>
       </c>
       <c r="M128" t="n">
@@ -9975,12 +9975,12 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>Department of Statistics, Malaysia</t>
+          <t>Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Industry Industrial Production Index</t>
+          <t>External Sector</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
@@ -10000,7 +10000,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>M548DSMIPI17.M</t>
+          <t>M548BNMVR6.M</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -10015,7 +10015,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, Industry, Industrial Production Index, Manufacture of Paper and Paper Products, Not Seasonally Adjusted, Unit: Index: 2015=100, Source: Department of Statistics, Malaysia</t>
+          <t>Malaysia National Statistics, External Sector, External Reserves, International Reserves, Net, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -10030,7 +10030,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>1994-01</t>
+          <t>1989-01</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -10040,12 +10040,12 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Index: 2015=100</t>
+          <t>Millions of Malaysian Ringgit</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Paper and Paper Products</t>
+          <t>Offical Reserve Assets</t>
         </is>
       </c>
       <c r="M129" t="n">
@@ -10053,12 +10053,12 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>Department of Statistics, Malaysia</t>
+          <t>Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Industry Industrial Production Index</t>
+          <t>External Sector</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -10078,7 +10078,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>M548DSMIPI18.M</t>
+          <t>M548DSMCPI15.M</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -10093,7 +10093,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, Industry, Industrial Production Index, Manufacture of Refined Petroleum Products, Not Seasonally Adjusted, Unit: Index: 2015=100, Source: Department of Statistics, Malaysia</t>
+          <t>Malaysia National Statistics, Prices, Consumer Price Index, CPI: Durable Goods, Not Seasonally Adjusted, Unit: Index: 2010=100, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2004-01</t>
+          <t>1999-11</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -10118,12 +10118,12 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Index: 2015=100</t>
+          <t>Index: 2010=100</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Refined Petroleum Products</t>
+          <t>Consumer Goods</t>
         </is>
       </c>
       <c r="M130" t="n">
@@ -10136,7 +10136,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Industry Industrial Production Index</t>
+          <t>Prices</t>
         </is>
       </c>
       <c r="P130" t="inlineStr">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>M548DSMIPI1a.M</t>
+          <t>M548DSMCPI16.M</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -10171,7 +10171,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, Industry, Industrial Production Index, Manufacture of Tobacco Products, Not Seasonally Adjusted, Unit: Index: 2015=100, Source: Department of Statistics, Malaysia</t>
+          <t>Malaysia National Statistics, Prices, Consumer Price Index, CPI: Semi Durable Goods, Not Seasonally Adjusted, Unit: Index: 2010=100, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -10186,7 +10186,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>1994-01</t>
+          <t>1999-11</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -10196,12 +10196,12 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Index: 2015=100</t>
+          <t>Index: 2010=100</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Tobacco Products</t>
+          <t>Consumer Goods</t>
         </is>
       </c>
       <c r="M131" t="n">
@@ -10214,7 +10214,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Industry Industrial Production Index</t>
+          <t>Prices</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>M548DSMIPI21.M</t>
+          <t>M548DSMCPI17.M</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, Industry, Industrial Production Index, Manufacture of Rubber Products, Not Seasonally Adjusted, Unit: Index: 2015=100, Source: Department of Statistics, Malaysia</t>
+          <t>Malaysia National Statistics, Prices, Consumer Price Index, CPI: Non Durable Goods, Not Seasonally Adjusted, Unit: Index: 2010=100, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>1995-01</t>
+          <t>1999-11</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -10274,12 +10274,12 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Index: 2015=100</t>
+          <t>Index: 2010=100</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Rubber and Plastics Products</t>
+          <t>Consumer Goods</t>
         </is>
       </c>
       <c r="M132" t="n">
@@ -10292,7 +10292,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Industry Industrial Production Index</t>
+          <t>Prices</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>M548DSMIPI24.M</t>
+          <t>M548DSMCPI18.M</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -10327,7 +10327,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, Industry, Industrial Production Index, Manufacture of Non Metallic Mineral Products N.E.C., Not Seasonally Adjusted, Unit: Index: 2015=100, Source: Department of Statistics, Malaysia</t>
+          <t>Malaysia National Statistics, Prices, Consumer Price Index, CPI: Services, Not Seasonally Adjusted, Unit: Index: 2010=100, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -10342,7 +10342,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>1994-01</t>
+          <t>1999-11</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -10352,12 +10352,12 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Index: 2015=100</t>
+          <t>Index: 2010=100</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Other Non-Metallic Mineral Products</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="M133" t="n">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Industry Industrial Production Index</t>
+          <t>Prices</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
@@ -10390,7 +10390,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>M548DSMIPI28.M</t>
+          <t>M548DSMIC1.M</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -10405,7 +10405,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, Industry, Industrial Production Index, Manufacture of Other Fabricated Metal Products, Metal Working Service Activities, Not Seasonally Adjusted, Unit: Index: 2015=100, Source: Department of Statistics, Malaysia</t>
+          <t>Malaysia National Statistics, Surveys and Cyclical Indicators, Composite Index, Coincident Index, Not Seasonally Adjusted, Unit: Index: 2015=100, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -10420,12 +10420,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>1994-01</t>
+          <t>1991-01</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -10435,7 +10435,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Fabricated Metal Products except Machinery and Equipment</t>
+          <t>Coincident Index</t>
         </is>
       </c>
       <c r="M134" t="n">
@@ -10448,7 +10448,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Industry Industrial Production Index</t>
+          <t>Surveys and Cyclical Indicators</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
@@ -10468,7 +10468,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>M548DSMIPI42.M</t>
+          <t>M548DSMIC2.M</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -10483,7 +10483,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, Industry, Industrial Production Index, Manufacture of Transport Equipment N.E.C., Not Seasonally Adjusted, Unit: Index: 2015=100, Source: Department of Statistics, Malaysia</t>
+          <t>Malaysia National Statistics, Surveys and Cyclical Indicators, Composite Index, Leading Index, Not Seasonally Adjusted, Unit: Index: 2015=100, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -10498,12 +10498,12 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>1994-01</t>
+          <t>1991-01</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -10513,7 +10513,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Other Transport Equipment</t>
+          <t>Leading Index</t>
         </is>
       </c>
       <c r="M135" t="n">
@@ -10526,7 +10526,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Industry Industrial Production Index</t>
+          <t>Surveys and Cyclical Indicators</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>M548DSMIPI9.M</t>
+          <t>M548DSMIC3.M</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -10561,7 +10561,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, Industry, Industrial Production Index, Manufacture of Beverages, Not Seasonally Adjusted, Unit: Index: 2015=100, Source: Department of Statistics, Malaysia</t>
+          <t>Malaysia National Statistics, Surveys and Cyclical Indicators, Composite Index, Lagging Index, Not Seasonally Adjusted, Unit: Index: 2015=100, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -10576,12 +10576,12 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>1994-01</t>
+          <t>1991-01</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Food Products and Beverages</t>
+          <t>Lagging Index</t>
         </is>
       </c>
       <c r="M136" t="n">
@@ -10604,7 +10604,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Industry Industrial Production Index</t>
+          <t>Surveys and Cyclical Indicators</t>
         </is>
       </c>
       <c r="P136" t="inlineStr">
@@ -10624,22 +10624,22 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Q548BNMBOP17.Q</t>
+          <t>M548DSMIPI16.M</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>data001</t>
+          <t>data046</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, External Sector, Balance of Payments, Current Account, Net (BPM6), Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Industry, Industrial Production Index, Manufacture of Products of Wood, Cork, Straw and Plaiting Materials, Not Seasonally Adjusted, Unit: Index: 2015=100, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -10649,27 +10649,27 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2010-Q1</t>
+          <t>1994-01</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Index: 2015=100</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Current Account</t>
+          <t>Wood and Wood Products excluding Furniture</t>
         </is>
       </c>
       <c r="M137" t="n">
@@ -10677,12 +10677,12 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>External Sector</t>
+          <t>Industry Industrial Production Index</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
@@ -10702,22 +10702,22 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Q548BNMQN1.Q</t>
+          <t>M548DSMIPI17.M</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>data002</t>
+          <t>data047</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Domestic Product, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Industry, Industrial Production Index, Manufacture of Paper and Paper Products, Not Seasonally Adjusted, Unit: Index: 2015=100, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -10727,27 +10727,27 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>1994-01</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Index: 2015=100</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Gross Domestic Product</t>
+          <t>Paper and Paper Products</t>
         </is>
       </c>
       <c r="M138" t="n">
@@ -10755,12 +10755,12 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Industry Industrial Production Index</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
@@ -10780,22 +10780,22 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Q548BNMQN11.Q</t>
+          <t>M548DSMIPI18.M</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>data003</t>
+          <t>data048</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Changes in Inventories and Valuables, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Industry, Industrial Production Index, Manufacture of Refined Petroleum Products, Not Seasonally Adjusted, Unit: Index: 2015=100, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -10805,27 +10805,27 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>2004-01</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Index: 2015=100</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Changes in Inventories and Acquisitions less Disposals of Valuables</t>
+          <t>Refined Petroleum Products</t>
         </is>
       </c>
       <c r="M139" t="n">
@@ -10833,12 +10833,12 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Industry Industrial Production Index</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
@@ -10858,22 +10858,22 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Q548BNMQN12.Q</t>
+          <t>M548DSMIPI1a.M</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>data004</t>
+          <t>data049</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Fixed Capital Formation, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Industry, Industrial Production Index, Manufacture of Tobacco Products, Not Seasonally Adjusted, Unit: Index: 2015=100, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -10883,27 +10883,27 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>1994-01</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Index: 2015=100</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Gross Fixed Capital Formation (Fixed Investment)</t>
+          <t>Tobacco Products</t>
         </is>
       </c>
       <c r="M140" t="n">
@@ -10911,12 +10911,12 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Industry Industrial Production Index</t>
         </is>
       </c>
       <c r="P140" t="inlineStr">
@@ -10936,22 +10936,22 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Q548BNMQN13.Q</t>
+          <t>M548DSMIPI21.M</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>data005</t>
+          <t>data050</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Export of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Industry, Industrial Production Index, Manufacture of Rubber Products, Not Seasonally Adjusted, Unit: Index: 2015=100, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -10961,27 +10961,27 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>1995-01</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Index: 2015=100</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Exports of Goods and Services</t>
+          <t>Rubber and Plastics Products</t>
         </is>
       </c>
       <c r="M141" t="n">
@@ -10989,12 +10989,12 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Industry Industrial Production Index</t>
         </is>
       </c>
       <c r="P141" t="inlineStr">
@@ -11014,22 +11014,22 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Q548BNMQN14.Q</t>
+          <t>M548DSMIPI24.M</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>data006</t>
+          <t>data051</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Import of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Industry, Industrial Production Index, Manufacture of Non Metallic Mineral Products N.E.C., Not Seasonally Adjusted, Unit: Index: 2015=100, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -11039,27 +11039,27 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>1994-01</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Index: 2015=100</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Imports of Goods and Services</t>
+          <t>Other Non-Metallic Mineral Products</t>
         </is>
       </c>
       <c r="M142" t="n">
@@ -11067,12 +11067,12 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Industry Industrial Production Index</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
@@ -11092,22 +11092,22 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Q548BNMQN15.Q</t>
+          <t>M548DSMIPI28.M</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>data007</t>
+          <t>data052</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Industry, Industrial Production Index, Manufacture of Other Fabricated Metal Products, Metal Working Service Activities, Not Seasonally Adjusted, Unit: Index: 2015=100, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -11117,27 +11117,27 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>1994-01</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Index: 2015=100</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Final Consumption Expenditure (Total Consumption)</t>
+          <t>Fabricated Metal Products except Machinery and Equipment</t>
         </is>
       </c>
       <c r="M143" t="n">
@@ -11145,12 +11145,12 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Industry Industrial Production Index</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
@@ -11170,22 +11170,22 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Q548BNMQN1a.Q</t>
+          <t>M548DSMIPI42.M</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>data008</t>
+          <t>data053</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Private Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Industry, Industrial Production Index, Manufacture of Transport Equipment N.E.C., Not Seasonally Adjusted, Unit: Index: 2015=100, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -11195,27 +11195,27 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>1994-01</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Index: 2015=100</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Private Consumption (Households and NPiSHs)</t>
+          <t>Other Transport Equipment</t>
         </is>
       </c>
       <c r="M144" t="n">
@@ -11223,12 +11223,12 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Industry Industrial Production Index</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -11248,22 +11248,22 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Q548BNMQN2.Q</t>
+          <t>M548DSMIPI9.M</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>data009</t>
+          <t>data054</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Agriculture, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Industry, Industrial Production Index, Manufacture of Beverages, Not Seasonally Adjusted, Unit: Index: 2015=100, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -11273,27 +11273,27 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>1994-01</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Index: 2015=100</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Agriculture</t>
+          <t>Food Products and Beverages</t>
         </is>
       </c>
       <c r="M145" t="n">
@@ -11301,12 +11301,12 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Industry Industrial Production Index</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -11326,22 +11326,22 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Q548BNMQN21.Q</t>
+          <t>M548DSMVSI1.M</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>data010</t>
+          <t>data055</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Transport and Storage, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Labour Market, Registered Vacancies and Placements, Agriculture, Forestry and Fishing, Not Seasonally Adjusted, Unit: Number of Vacancies, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -11351,27 +11351,27 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2000-Q1</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Number of Vacancies</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Transport, Storage and Communication</t>
+          <t>Agriculture, Forestry and Fishing</t>
         </is>
       </c>
       <c r="M146" t="n">
@@ -11379,12 +11379,12 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Labour Market</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
@@ -11404,22 +11404,22 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Q548BNMQN22.Q</t>
+          <t>M548DSMVSI11.M</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>data011</t>
+          <t>data056</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Information and Communication, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Labour Market, Registered Vacancies and Placements, Real Estate Activities, Not Seasonally Adjusted, Unit: Number of Vacancies, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -11429,27 +11429,27 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2000-Q1</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Number of Vacancies</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Transport, Storage and Communication</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="M147" t="n">
@@ -11457,12 +11457,12 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Labour Market</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
@@ -11482,22 +11482,22 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Q548BNMQN25.Q</t>
+          <t>M548DSMVSI12.M</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>data012</t>
+          <t>data057</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Government Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Labour Market, Registered Vacancies and Placements, Public Administration and Defence, Compulsory Social Security, Not Seasonally Adjusted, Unit: Number of Vacancies, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -11507,27 +11507,27 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Number of Vacancies</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Public Administration, Defence, Education, Human Health and Social Work</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="M148" t="n">
@@ -11535,12 +11535,12 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Labour Market</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -11560,22 +11560,22 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Q548BNMQN26.Q</t>
+          <t>M548DSMVSI13.M</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>data013</t>
+          <t>data058</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Other Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Labour Market, Registered Vacancies and Placements, Education, Not Seasonally Adjusted, Unit: Number of Vacancies, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -11585,27 +11585,27 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Number of Vacancies</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Other Service Activities and Activities of Households as Employers</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="M149" t="n">
@@ -11613,12 +11613,12 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Labour Market</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
@@ -11638,22 +11638,22 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Q548BNMQN27.Q</t>
+          <t>M548DSMVSI14.M</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>data014</t>
+          <t>data059</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Electricity and Gas, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Labour Market, Registered Vacancies and Placements, Human Health and Social Work Activities, Not Seasonally Adjusted, Unit: Number of Vacancies, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -11663,27 +11663,27 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2005-Q1</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Number of Vacancies</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Electricity, Gas and Water</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="M150" t="n">
@@ -11691,12 +11691,12 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Labour Market</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
@@ -11716,22 +11716,22 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Q548BNMQN28.Q</t>
+          <t>M548DSMVSI15.M</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>data015</t>
+          <t>data060</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Water, Sewerage and Waste Management, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Labour Market, Registered Vacancies and Placements, Other Service Activities, Not Seasonally Adjusted, Unit: Number of Vacancies, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -11741,27 +11741,27 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2005-Q1</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Number of Vacancies</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Electricity, Gas and Water</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="M151" t="n">
@@ -11769,12 +11769,12 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Labour Market</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
@@ -11794,22 +11794,22 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Q548BNMQN29.Q</t>
+          <t>M548DSMVSI17.M</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>data016</t>
+          <t>data061</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Wholesale Trade, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Labour Market, Registered Vacancies and Placements, Activities of Extraterritorial Organisations and Bodies, Not Seasonally Adjusted, Unit: Number of Vacancies, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -11819,27 +11819,27 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2005-Q1</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Number of Vacancies</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="M152" t="n">
@@ -11847,12 +11847,12 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Labour Market</t>
         </is>
       </c>
       <c r="P152" t="inlineStr">
@@ -11872,22 +11872,22 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Q548BNMQN3.Q</t>
+          <t>M548DSMVSI1a.M</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>data017</t>
+          <t>data062</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Mining and Quarrying, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Labour Market, Registered Vacancies and Placements, Financial and Insurance or Takaful Activities, Not Seasonally Adjusted, Unit: Number of Vacancies, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -11897,27 +11897,27 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Number of Vacancies</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Mining and Quarrying</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="M153" t="n">
@@ -11925,12 +11925,12 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Labour Market</t>
         </is>
       </c>
       <c r="P153" t="inlineStr">
@@ -11950,22 +11950,22 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Q548BNMQN31.Q</t>
+          <t>M548DSMVSI3.M</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>data018</t>
+          <t>data063</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Accommodation, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Labour Market, Registered Vacancies and Placements, Mining and Quarrying, Not Seasonally Adjusted, Unit: Number of Vacancies, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -11975,27 +11975,27 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2005-Q1</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Number of Vacancies</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Accommodation and Food Service Activities</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="M154" t="n">
@@ -12003,12 +12003,12 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Labour Market</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
@@ -12028,22 +12028,22 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Q548BNMQN32.Q</t>
+          <t>M548DSMVSI4.M</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>data019</t>
+          <t>data064</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Food and Beverage, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Labour Market, Registered Vacancies and Placements, Manufacturing, Not Seasonally Adjusted, Unit: Number of Vacancies, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -12053,27 +12053,27 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2005-Q1</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Number of Vacancies</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Food Products, Beverages and Tobacco</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="M155" t="n">
@@ -12081,12 +12081,12 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Labour Market</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
@@ -12106,22 +12106,22 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Q548BNMQN33.Q</t>
+          <t>M548DSMVSI6.M</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>data020</t>
+          <t>data065</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Finance, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Labour Market, Registered Vacancies and Placements, Construction, Not Seasonally Adjusted, Unit: Number of Vacancies, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -12131,27 +12131,27 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2005-Q1</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Number of Vacancies</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Financial and Insurance Activities</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="M156" t="n">
@@ -12159,12 +12159,12 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Labour Market</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
@@ -12184,22 +12184,22 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Q548BNMQN34.Q</t>
+          <t>M548DSMVSI7.M</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>data021</t>
+          <t>data066</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Insurance, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Labour Market, Registered Vacancies and Placements, Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles, Not Seasonally Adjusted, Unit: Number of Vacancies, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -12209,27 +12209,27 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2005-Q1</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Number of Vacancies</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Financial and Insurance Activities</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="M157" t="n">
@@ -12237,12 +12237,12 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Labour Market</t>
         </is>
       </c>
       <c r="P157" t="inlineStr">
@@ -12262,22 +12262,22 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Q548BNMQN3a.Q</t>
+          <t>M548DSMVSI8.M</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>data022</t>
+          <t>data067</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Retail Trade, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Labour Market, Registered Vacancies and Placements, Accommodation and Food Service Activities, Not Seasonally Adjusted, Unit: Number of Vacancies, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -12287,27 +12287,27 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2005-Q1</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Number of Vacancies</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="M158" t="n">
@@ -12315,12 +12315,12 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Labour Market</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
@@ -12340,22 +12340,22 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Q548BNMQN4.Q</t>
+          <t>M548DSMVSI9.M</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>data023</t>
+          <t>data068</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Manufacturing, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Labour Market, Registered Vacancies and Placements, Transport and Storage, Not Seasonally Adjusted, Unit: Number of Vacancies, Source: Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -12365,27 +12365,27 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Millions of Malaysian Ringgit</t>
+          <t>Number of Vacancies</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="M159" t="n">
@@ -12393,12 +12393,12 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>Bank Negara Malaysia</t>
+          <t>Department of Statistics, Malaysia</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Labour Market</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
@@ -12418,7 +12418,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Q548BNMQN5.Q</t>
+          <t>Q548BNMBOP17.Q</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -12428,12 +12428,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>data024</t>
+          <t>data001</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Construction, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, External Sector, Balance of Payments, Current Account, Net (BPM6), Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -12448,7 +12448,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>2010-Q1</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -12463,7 +12463,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Current Account</t>
         </is>
       </c>
       <c r="M160" t="n">
@@ -12476,7 +12476,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>External Sector</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
@@ -12496,7 +12496,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Q548BNMQN6.Q</t>
+          <t>Q548BNMQN1.Q</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -12506,12 +12506,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>data025</t>
+          <t>data002</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Domestic Product, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -12526,7 +12526,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2000-Q1</t>
+          <t>1991-Q1</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -12541,7 +12541,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Gross Domestic Product</t>
         </is>
       </c>
       <c r="M161" t="n">
@@ -12574,7 +12574,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Q548BNMQN8.Q</t>
+          <t>Q548BNMQN11.Q</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -12584,12 +12584,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>data026</t>
+          <t>data003</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Import Duties, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Changes in Inventories and Valuables, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -12619,7 +12619,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Taxes less Subsidies on Products</t>
+          <t>Changes in Inventories and Acquisitions less Disposals of Valuables</t>
         </is>
       </c>
       <c r="M162" t="n">
@@ -12652,7 +12652,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Q548BNMQN9.Q</t>
+          <t>Q548BNMQN12.Q</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -12662,12 +12662,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>data027</t>
+          <t>data004</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Real Government Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Fixed Capital Formation, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -12697,7 +12697,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Government Consumption</t>
+          <t>Gross Fixed Capital Formation (Fixed Investment)</t>
         </is>
       </c>
       <c r="M163" t="n">
@@ -12730,7 +12730,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Q548BNMVGE4.Q</t>
+          <t>Q548BNMQN13.Q</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -12740,12 +12740,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>data028</t>
+          <t>data005</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, Government Finance, Federal Government Operating Expenditure, Debt Service Charges, Total, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Export of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>1999-Q1</t>
+          <t>1991-Q1</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -12775,7 +12775,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Exports of Goods and Services</t>
         </is>
       </c>
       <c r="M164" t="n">
@@ -12788,7 +12788,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Government Finance</t>
+          <t>National Accounts</t>
         </is>
       </c>
       <c r="P164" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Q548BNMVGE5.Q</t>
+          <t>Q548BNMQN14.Q</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -12818,12 +12818,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>data029</t>
+          <t>data006</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, Government Finance, Federal Government Operating Expenditure, Debt Service Charges, Domestic, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Import of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -12838,7 +12838,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>1999-Q1</t>
+          <t>1991-Q1</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -12853,7 +12853,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Imports of Goods and Services</t>
         </is>
       </c>
       <c r="M165" t="n">
@@ -12866,7 +12866,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Government Finance</t>
+          <t>National Accounts</t>
         </is>
       </c>
       <c r="P165" t="inlineStr">
@@ -12886,7 +12886,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Q548BNMVGE6.Q</t>
+          <t>Q548BNMQN15.Q</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -12896,12 +12896,12 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>data030</t>
+          <t>data007</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, Government Finance, Federal Government Operating Expenditure, Debt Service Charges, External, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -12916,7 +12916,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>1999-Q1</t>
+          <t>1991-Q1</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -12931,7 +12931,7 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Final Consumption Expenditure (Total Consumption)</t>
         </is>
       </c>
       <c r="M166" t="n">
@@ -12944,7 +12944,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Government Finance</t>
+          <t>National Accounts</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
@@ -12964,7 +12964,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Q548BNMVGG1.Q</t>
+          <t>Q548BNMQN1a.Q</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -12974,12 +12974,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>data031</t>
+          <t>data008</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, Government Finance, Federal Government, Current Budget, Revenues, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Private Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -12994,7 +12994,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>1967-Q1</t>
+          <t>1991-Q1</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -13009,7 +13009,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Current Revenue</t>
+          <t>Private Consumption (Households and NPiSHs)</t>
         </is>
       </c>
       <c r="M167" t="n">
@@ -13022,7 +13022,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Government Finance</t>
+          <t>National Accounts</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
@@ -13042,7 +13042,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Q548BNMVGG2.Q</t>
+          <t>Q548BNMQN2.Q</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -13052,12 +13052,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>data032</t>
+          <t>data009</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, Government Finance, Federal Government, Current Budget, Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Agriculture, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -13072,7 +13072,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>1975-Q1</t>
+          <t>1991-Q1</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -13087,7 +13087,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Current Expenditure</t>
+          <t>Agriculture</t>
         </is>
       </c>
       <c r="M168" t="n">
@@ -13100,7 +13100,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Government Finance</t>
+          <t>National Accounts</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
@@ -13120,7 +13120,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Q548BNMVGG3.Q</t>
+          <t>Q548BNMQN21.Q</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -13130,12 +13130,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>data033</t>
+          <t>data010</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, Government Finance, Federal Government, Current Budget, Surplus or Deficit, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Transport and Storage, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -13150,7 +13150,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>1967-Q1</t>
+          <t>2000-Q1</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -13165,7 +13165,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Current Balance</t>
+          <t>Transport, Storage and Communication</t>
         </is>
       </c>
       <c r="M169" t="n">
@@ -13178,7 +13178,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Government Finance</t>
+          <t>National Accounts</t>
         </is>
       </c>
       <c r="P169" t="inlineStr">
@@ -13198,7 +13198,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Q548BNMVGGD1.Q</t>
+          <t>Q548BNMQN22.Q</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -13208,12 +13208,12 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>data034</t>
+          <t>data011</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, Government Finance, Federal Government Debt, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Information and Communication, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -13228,7 +13228,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>1996-Q1</t>
+          <t>2000-Q1</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -13243,7 +13243,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Transport, Storage and Communication</t>
         </is>
       </c>
       <c r="M170" t="n">
@@ -13256,7 +13256,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Government Finance</t>
+          <t>National Accounts</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Q548BNMVGGD13.Q</t>
+          <t>Q548BNMQN25.Q</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -13286,12 +13286,12 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>data035</t>
+          <t>data012</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, Government Finance, Federal Government, External Debt, Sub Total, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Government Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -13306,7 +13306,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2008-Q1</t>
+          <t>1991-Q1</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -13321,7 +13321,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Non-Domestic</t>
+          <t>Public Administration, Defence, Education, Human Health and Social Work</t>
         </is>
       </c>
       <c r="M171" t="n">
@@ -13334,7 +13334,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Government Finance</t>
+          <t>National Accounts</t>
         </is>
       </c>
       <c r="P171" t="inlineStr">
@@ -13354,7 +13354,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Q548BNMVGGD2.Q</t>
+          <t>Q548BNMQN26.Q</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -13364,12 +13364,12 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>data036</t>
+          <t>data013</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, Government Finance, Federal Government, Domestic Debt, Sub Total, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Other Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>1996-Q1</t>
+          <t>1991-Q1</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -13399,7 +13399,7 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>Other Service Activities and Activities of Households as Employers</t>
         </is>
       </c>
       <c r="M172" t="n">
@@ -13412,7 +13412,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Government Finance</t>
+          <t>National Accounts</t>
         </is>
       </c>
       <c r="P172" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Q548BNMVN1.Q</t>
+          <t>Q548BNMQN27.Q</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -13442,12 +13442,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>data037</t>
+          <t>data014</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Domestic Product, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Electricity and Gas, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -13462,7 +13462,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>2005-Q1</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -13477,7 +13477,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Gross Domestic Product</t>
+          <t>Electricity, Gas and Water</t>
         </is>
       </c>
       <c r="M173" t="n">
@@ -13510,7 +13510,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Q548BNMVN11.Q</t>
+          <t>Q548BNMQN28.Q</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -13520,12 +13520,12 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>data038</t>
+          <t>data015</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Changes in Inventories and Valuables, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Water, Sewerage and Waste Management, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -13540,7 +13540,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>2005-Q1</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -13555,7 +13555,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Changes in Inventories and Acquisitions less Disposals of Valuables</t>
+          <t>Electricity, Gas and Water</t>
         </is>
       </c>
       <c r="M174" t="n">
@@ -13588,7 +13588,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Q548BNMVN12.Q</t>
+          <t>Q548BNMQN29.Q</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -13598,12 +13598,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>data039</t>
+          <t>data016</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Wholesale Trade, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -13618,7 +13618,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>2005-Q1</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -13633,7 +13633,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Gross Fixed Capital Formation (Fixed Investment)</t>
+          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
         </is>
       </c>
       <c r="M175" t="n">
@@ -13666,7 +13666,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Q548BNMVN13.Q</t>
+          <t>Q548BNMQN3.Q</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -13676,12 +13676,12 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>data040</t>
+          <t>data017</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Export of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Mining and Quarrying, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -13711,7 +13711,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Exports of Goods and Services</t>
+          <t>Mining and Quarrying</t>
         </is>
       </c>
       <c r="M176" t="n">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Q548BNMVN14.Q</t>
+          <t>Q548BNMQN31.Q</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -13754,12 +13754,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>data041</t>
+          <t>data018</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Import of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Accommodation, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -13774,7 +13774,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>2005-Q1</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -13789,7 +13789,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Imports of Goods and Services</t>
+          <t>Accommodation and Food Service Activities</t>
         </is>
       </c>
       <c r="M177" t="n">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Q548BNMVN15.Q</t>
+          <t>Q548BNMQN32.Q</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -13832,12 +13832,12 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>data042</t>
+          <t>data019</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Food and Beverage, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -13852,7 +13852,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>2005-Q1</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -13867,7 +13867,7 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Final Consumption Expenditure (Total Consumption)</t>
+          <t>Food Products, Beverages and Tobacco</t>
         </is>
       </c>
       <c r="M178" t="n">
@@ -13900,7 +13900,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Q548BNMVN1a.Q</t>
+          <t>Q548BNMQN33.Q</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -13910,12 +13910,12 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>data043</t>
+          <t>data020</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Private Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Finance, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -13930,7 +13930,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>2005-Q1</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -13945,7 +13945,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Private Consumption (Households and NPiSHs)</t>
+          <t>Financial and Insurance Activities</t>
         </is>
       </c>
       <c r="M179" t="n">
@@ -13978,7 +13978,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Q548BNMVN2.Q</t>
+          <t>Q548BNMQN34.Q</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -13988,12 +13988,12 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>data044</t>
+          <t>data021</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Agriculture, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Insurance, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>2005-Q1</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -14023,7 +14023,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Agriculture</t>
+          <t>Financial and Insurance Activities</t>
         </is>
       </c>
       <c r="M180" t="n">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Q548BNMVN24.Q</t>
+          <t>Q548BNMQN3a.Q</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -14066,12 +14066,12 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>data045</t>
+          <t>data022</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Transport and Storage, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Retail Trade, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -14086,7 +14086,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2000-Q1</t>
+          <t>2005-Q1</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -14101,7 +14101,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Transport, Storage and Communication</t>
+          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
         </is>
       </c>
       <c r="M181" t="n">
@@ -14134,7 +14134,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Q548BNMVN25.Q</t>
+          <t>Q548BNMQN4.Q</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -14144,12 +14144,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>data046</t>
+          <t>data023</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Information and Communication, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Manufacturing, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -14164,7 +14164,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2000-Q1</t>
+          <t>1991-Q1</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -14179,7 +14179,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Transport, Storage and Communication</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="M182" t="n">
@@ -14212,7 +14212,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Q548BNMVN28.Q</t>
+          <t>Q548BNMQN5.Q</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -14222,12 +14222,12 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>data047</t>
+          <t>data024</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Government Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Construction, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -14257,7 +14257,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Public Administration, Defence, Education, Human Health and Social Work</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="M183" t="n">
@@ -14290,7 +14290,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Q548BNMVN29.Q</t>
+          <t>Q548BNMQN6.Q</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -14300,12 +14300,12 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>data048</t>
+          <t>data025</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Other Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Gross Value Added, Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -14320,7 +14320,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>2000-Q1</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -14335,7 +14335,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Other Service Activities and Activities of Households as Employers</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="M184" t="n">
@@ -14368,7 +14368,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Q548BNMVN3.Q</t>
+          <t>Q548BNMQN8.Q</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -14378,12 +14378,12 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>data049</t>
+          <t>data026</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Mining and Quarrying, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Import Duties, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -14413,7 +14413,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Mining and Quarrying</t>
+          <t>Taxes less Subsidies on Products</t>
         </is>
       </c>
       <c r="M185" t="n">
@@ -14446,7 +14446,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Q548BNMVN31.Q</t>
+          <t>Q548BNMQN9.Q</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -14456,12 +14456,12 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>data050</t>
+          <t>data027</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Water, Sewerage and Waste Management, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Real Government Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -14476,7 +14476,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>2005-Q1</t>
+          <t>1991-Q1</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -14491,7 +14491,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Electricity, Gas and Water</t>
+          <t>Government Consumption</t>
         </is>
       </c>
       <c r="M186" t="n">
@@ -14524,7 +14524,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Q548BNMVN32.Q</t>
+          <t>Q548BNMVGE4.Q</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -14534,12 +14534,12 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>data051</t>
+          <t>data028</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Wholesale Trade, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Government Finance, Federal Government Operating Expenditure, Debt Service Charges, Total, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -14554,7 +14554,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>2005-Q1</t>
+          <t>1999-Q1</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -14569,7 +14569,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="M187" t="n">
@@ -14582,7 +14582,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Government Finance</t>
         </is>
       </c>
       <c r="P187" t="inlineStr">
@@ -14602,7 +14602,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Q548BNMVN33.Q</t>
+          <t>Q548BNMVGE5.Q</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -14612,12 +14612,12 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>data052</t>
+          <t>data029</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Retail Trade, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Government Finance, Federal Government Operating Expenditure, Debt Service Charges, Domestic, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>2005-Q1</t>
+          <t>1999-Q1</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -14647,7 +14647,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="M188" t="n">
@@ -14660,7 +14660,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Government Finance</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Q548BNMVN34.Q</t>
+          <t>Q548BNMVGE6.Q</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -14690,12 +14690,12 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>data053</t>
+          <t>data030</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Accommodation, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Government Finance, Federal Government Operating Expenditure, Debt Service Charges, External, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -14710,7 +14710,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>2005-Q1</t>
+          <t>1999-Q1</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -14725,7 +14725,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Accommodation and Food Service Activities</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="M189" t="n">
@@ -14738,7 +14738,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Government Finance</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
@@ -14758,7 +14758,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Q548BNMVN35.Q</t>
+          <t>Q548BNMVGG1.Q</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -14768,12 +14768,12 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>data054</t>
+          <t>data031</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Food and Beverage, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Government Finance, Federal Government, Current Budget, Revenues, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -14788,7 +14788,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>2005-Q1</t>
+          <t>1967-Q1</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -14803,7 +14803,7 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Food Products, Beverages and Tobacco</t>
+          <t>Current Revenue</t>
         </is>
       </c>
       <c r="M190" t="n">
@@ -14816,7 +14816,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Government Finance</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
@@ -14836,7 +14836,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Q548BNMVN36.Q</t>
+          <t>Q548BNMVGG2.Q</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -14846,12 +14846,12 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>data055</t>
+          <t>data032</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Finance, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Government Finance, Federal Government, Current Budget, Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -14866,7 +14866,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2005-Q1</t>
+          <t>1975-Q1</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -14881,7 +14881,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Financial and Insurance Activities</t>
+          <t>Current Expenditure</t>
         </is>
       </c>
       <c r="M191" t="n">
@@ -14894,7 +14894,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Government Finance</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
@@ -14914,7 +14914,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Q548BNMVN37.Q</t>
+          <t>Q548BNMVGG3.Q</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -14924,12 +14924,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>data056</t>
+          <t>data033</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Insurance, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Government Finance, Federal Government, Current Budget, Surplus or Deficit, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -14944,7 +14944,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>2005-Q1</t>
+          <t>1967-Q1</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -14959,7 +14959,7 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Financial and Insurance Activities</t>
+          <t>Current Balance</t>
         </is>
       </c>
       <c r="M192" t="n">
@@ -14972,7 +14972,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Government Finance</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
@@ -14992,7 +14992,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Q548BNMVN3a.Q</t>
+          <t>Q548BNMVGGD1.Q</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -15002,12 +15002,12 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>data057</t>
+          <t>data034</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Electricity and Gas, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Government Finance, Federal Government Debt, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -15022,7 +15022,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2005-Q1</t>
+          <t>1996-Q1</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -15037,7 +15037,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Electricity, Gas and Water</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="M193" t="n">
@@ -15050,7 +15050,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Government Finance</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Q548BNMVN4.Q</t>
+          <t>Q548BNMVGGD13.Q</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -15080,12 +15080,12 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>data058</t>
+          <t>data035</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Manufacturing, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Government Finance, Federal Government, External Debt, Sub Total, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -15100,7 +15100,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>2008-Q1</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -15115,7 +15115,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>Non-Domestic</t>
         </is>
       </c>
       <c r="M194" t="n">
@@ -15128,7 +15128,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Government Finance</t>
         </is>
       </c>
       <c r="P194" t="inlineStr">
@@ -15148,7 +15148,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Q548BNMVN5.Q</t>
+          <t>Q548BNMVGGD2.Q</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -15158,12 +15158,12 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>data059</t>
+          <t>data036</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Construction, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, Government Finance, Federal Government, Domestic Debt, Sub Total, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -15178,7 +15178,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>1991-Q1</t>
+          <t>1996-Q1</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -15193,7 +15193,7 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Domestic</t>
         </is>
       </c>
       <c r="M195" t="n">
@@ -15206,7 +15206,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>National Accounts</t>
+          <t>Government Finance</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
@@ -15226,7 +15226,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Q548BNMVN6.Q</t>
+          <t>Q548BNMVN1.Q</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -15236,12 +15236,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>data060</t>
+          <t>data037</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Domestic Product, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>2000-Q1</t>
+          <t>1991-Q1</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -15271,7 +15271,7 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Gross Domestic Product</t>
         </is>
       </c>
       <c r="M196" t="n">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Q548BNMVN8.Q</t>
+          <t>Q548BNMVN11.Q</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -15314,12 +15314,12 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>data061</t>
+          <t>data038</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Import Duties, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Changes in Inventories and Valuables, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -15349,7 +15349,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Taxes less Subsidies on Products</t>
+          <t>Changes in Inventories and Acquisitions less Disposals of Valuables</t>
         </is>
       </c>
       <c r="M197" t="n">
@@ -15382,7 +15382,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Q548BNMVN9.Q</t>
+          <t>Q548BNMVN12.Q</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -15392,12 +15392,12 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>data062</t>
+          <t>data039</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Malaysia National Statistics, National Accounts, Nominal Government Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -15427,7 +15427,7 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Government Consumption</t>
+          <t>Gross Fixed Capital Formation (Fixed Investment)</t>
         </is>
       </c>
       <c r="M198" t="n">
@@ -15444,6 +15444,1800 @@
         </is>
       </c>
       <c r="P198" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Q548BNMVN13.Q</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>data040</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Export of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>Exports of Goods and Services</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>198</v>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Q548BNMVN14.Q</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>data041</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Import of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>Imports of Goods and Services</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>199</v>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Q548BNMVN15.Q</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>data042</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>Final Consumption Expenditure (Total Consumption)</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>200</v>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Q548BNMVN1a.Q</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>data043</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Private Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>Private Consumption (Households and NPiSHs)</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>201</v>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Q548BNMVN2.Q</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>data044</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Agriculture, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>202</v>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Q548BNMVN24.Q</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>data045</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Transport and Storage, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>Transport, Storage and Communication</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>203</v>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Q548BNMVN25.Q</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>data046</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Information and Communication, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Transport, Storage and Communication</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>204</v>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Q548BNMVN28.Q</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>data047</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Government Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Public Administration, Defence, Education, Human Health and Social Work</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>205</v>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Q548BNMVN29.Q</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>data048</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Other Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Other Service Activities and Activities of Households as Employers</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>206</v>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Q548BNMVN3.Q</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>data049</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Mining and Quarrying, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>Mining and Quarrying</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>207</v>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Q548BNMVN31.Q</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>data050</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Water, Sewerage and Waste Management, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>Electricity, Gas and Water</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>208</v>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Q548BNMVN32.Q</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>data051</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Wholesale Trade, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>209</v>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Q548BNMVN33.Q</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>data052</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Retail Trade, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>210</v>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Q548BNMVN34.Q</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>data053</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Accommodation, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Accommodation and Food Service Activities</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>211</v>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Q548BNMVN35.Q</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>data054</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Food and Beverage, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Food Products, Beverages and Tobacco</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>212</v>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Q548BNMVN36.Q</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>data055</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Finance, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Financial and Insurance Activities</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>213</v>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Q548BNMVN37.Q</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>data056</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Insurance, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Financial and Insurance Activities</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>214</v>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Q548BNMVN3a.Q</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>data057</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Electricity and Gas, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Electricity, Gas and Water</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>215</v>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Q548BNMVN4.Q</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>data058</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Manufacturing, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>216</v>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Q548BNMVN5.Q</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>data059</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Construction, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>217</v>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Q548BNMVN6.Q</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>data060</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Gross Value Added, Services, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>218</v>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Q548BNMVN8.Q</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>data061</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Import Duties, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>Taxes less Subsidies on Products</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>219</v>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Q548BNMVN9.Q</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>data062</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Malaysia National Statistics, National Accounts, Nominal Government Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Malaysian Ringgit, Source: Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>Millions of Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Government Consumption</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>220</v>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>Bank Negara Malaysia</t>
+        </is>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
         <is>
           <t>Not Seasonally Adjusted</t>
         </is>

--- a/INTLINE/output/INTLINE_keytest.xlsx
+++ b/INTLINE/output/INTLINE_keytest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A566PHSNIA1a.A</t>
+          <t>A566PHSNIA15.A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Philippines National Statistics, National Accounts, Nominal Imports of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+          <t>Philippines National Statistics, National Accounts, Real Household Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -865,7 +865,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Imports of Goods and Services</t>
+          <t>Households</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -898,7 +898,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A566PHSNIA2.A</t>
+          <t>A566PHSNIA16.A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Philippines National Statistics, National Accounts, Nominal Government Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+          <t>Philippines National Statistics, National Accounts, Real Government Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A566PHSNIA4.A</t>
+          <t>A566PHSNIA18.A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Philippines National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+          <t>Philippines National Statistics, National Accounts, Real Gross Fixed Capital Formation, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A566PHSNIA5.A</t>
+          <t>A566PHSNIA19.A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Philippines National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Construction, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+          <t>Philippines National Statistics, National Accounts, Real Gross Fixed Capital Formation, Construction, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A566PHSNIA6.A</t>
+          <t>A566PHSNIA1a.A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Philippines National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Durable Equipment, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+          <t>Philippines National Statistics, National Accounts, Nominal Imports of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Machinery and Equipment</t>
+          <t>Imports of Goods and Services</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A566PHSNIA7.A</t>
+          <t>A566PHSNIA2.A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Philippines National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Breeding Stocks and Orchard Development, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+          <t>Philippines National Statistics, National Accounts, Nominal Government Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Cultivated Biological Resources</t>
+          <t>Government Consumption</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A566PHSNIA8.A</t>
+          <t>A566PHSNIA21.A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Philippines National Statistics, National Accounts, Nominal Changes in Inventories, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+          <t>Philippines National Statistics, National Accounts, Real Gross Fixed Capital Formation, Breeding Stocks and Orchard Development, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Changes in Inventories</t>
+          <t>Cultivated Biological Resources</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A566PHSNIA9.A</t>
+          <t>A566PHSNIA22.A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Philippines National Statistics, National Accounts, Nominal Exports of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+          <t>Philippines National Statistics, National Accounts, Real Changes in Inventories, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Exports of Goods and Services</t>
+          <t>Changes in Inventories</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -1400,6 +1400,820 @@
         </is>
       </c>
       <c r="P14" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A566PHSNIA23.A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>data014</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Exports of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1946</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Exports of Goods and Services</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>14</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A566PHSNIA25.A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>data015</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Statistical Discrepancy, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Statistical Discrepancy</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>15</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A566PHSNIA26.A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>data016</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Domestic Product, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1946</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Gross Domestic Product</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>16</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A566PHSNIA27.A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>data017</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Net Primary Income from Rest of the World, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1946</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Net Primary Income with the Rest of the World</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>17</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A566PHSNIA2a.A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>data018</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Fixed Capital Formation, Durable Equipment, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1946</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Machinery and Equipment</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>18</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A566PHSNIA4.A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>data019</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1946</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (Fixed Investment)</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>19</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A566PHSNIA5.A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>data020</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Construction, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1946</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>20</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A566PHSNIA6.A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>data021</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Durable Equipment, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>1946</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Machinery and Equipment</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>21</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A566PHSNIA7.A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>data022</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Breeding Stocks and Orchard Development, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1946</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Cultivated Biological Resources</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>22</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A566PHSNIA8.A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>data023</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Changes in Inventories, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1946</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Changes in Inventories</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>23</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A566PHSNIA9.A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>data024</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Exports of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1946</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Exports of Goods and Services</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>24</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
         <is>
           <t>Not Seasonally Adjusted</t>
         </is>

--- a/INTLINE/output/INTLINE_keytest.xlsx
+++ b/INTLINE/output/INTLINE_keytest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A566PHSNIA4.A</t>
+          <t>A566PHSNIA35.A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Philippines National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Mining and Quarrying, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Gross Fixed Capital Formation (Fixed Investment)</t>
+          <t>Mining and Quarrying</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A566PHSNIA5.A</t>
+          <t>A566PHSNIA36.A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Philippines National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Construction, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Manufacturing, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A566PHSNIA6.A</t>
+          <t>A566PHSNIA37.A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Philippines National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Durable Equipment, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Construction, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Machinery and Equipment</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A566PHSNIA7.A</t>
+          <t>A566PHSNIA38.A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Philippines National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Breeding Stocks and Orchard Development, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Electricity, Steam, Water and Waste Management, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Cultivated Biological Resources</t>
+          <t>Electricity, Gas and Water</t>
         </is>
       </c>
       <c r="M23" t="n">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A566PHSNIA8.A</t>
+          <t>A566PHSNIA39.A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Philippines National Statistics, National Accounts, Nominal Changes in Inventories, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Service Sector, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Changes in Inventories</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A566PHSNIA9.A</t>
+          <t>A566PHSNIA4.A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Philippines National Statistics, National Accounts, Nominal Exports of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Exports of Goods and Services</t>
+          <t>Gross Fixed Capital Formation (Fixed Investment)</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -2214,6 +2214,1042 @@
         </is>
       </c>
       <c r="P25" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A566PHSNIA41.A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>data025</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1967</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>25</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A566PHSNIA42.A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>data026</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Financial and Insurance Activities, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1946</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Financial and Insurance Activities</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>26</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A566PHSNIA5.A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>data027</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Construction, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>1946</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>27</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A566PHSNIA51.A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>data028</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Manufacturing, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>1946</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>28</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A566PHSNIA52.A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>data029</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Construction, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1946</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>29</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A566PHSNIA53.A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>data030</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Electricity, Steam, Water and Waste Management, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1946</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Electricity, Gas and Water</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>30</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A566PHSNIA54.A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>data031</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Services Sector, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1946</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>31</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A566PHSNIA56.A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>data032</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1967</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>32</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A566PHSNIA57.A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>data033</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Financial and Insurance Activities, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>1946</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Financial and Insurance Activities</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>33</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A566PHSNIA5a.A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>data034</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Mining and Quarrying, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1946</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Mining and Quarrying</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>34</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A566PHSNIA6.A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>data035</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Durable Equipment, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1946</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Machinery and Equipment</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>35</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A566PHSNIA7.A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>data036</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Breeding Stocks and Orchard Development, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1946</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Cultivated Biological Resources</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>36</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A566PHSNIA8.A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>data037</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Changes in Inventories, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1946</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Changes in Inventories</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>37</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A566PHSNIA9.A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>data038</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Exports of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1946</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Exports of Goods and Services</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>38</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
         <is>
           <t>Not Seasonally Adjusted</t>
         </is>

--- a/INTLINE/output/INTLINE_keytest.xlsx
+++ b/INTLINE/output/INTLINE_keytest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3255,6 +3255,6320 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A566PSI.A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>data039</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Philippines Share Prices and Stock Indexes, Composite Index, Close Price, Not Seasonally Adjusted, Unit: Index: 1985.01.02=100, Source: Philippine Stock Exchange</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1986</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Index: 1985.01.02=100</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Composite Index, Close Price</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>39</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Philippine Stock Exchange</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Philippine Stock Exchange</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>D566PSI.D</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>DB_D_0001</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>data001</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Philippines Share Prices and Stock Indexes, Composite Index, Close Price, Not Seasonally Adjusted, Unit: Index: 1985.01.02=100, Source: Philippine Stock Exchange</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1986-01-02</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2022-05-17</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Index: 1985.01.02=100</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Composite Index, Close Price</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>40</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Philippine Stock Exchange</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Philippine Stock Exchange</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>M566PSI.M</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>data001</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Philippines Share Prices and Stock Indexes, Composite Index, Close Price, Not Seasonally Adjusted, Unit: Index: 1985.01.02=100, Source: Philippine Stock Exchange</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1986-03</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Index: 1985.01.02=100</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Composite Index, Close Price</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>41</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Philippine Stock Exchange</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Philippine Stock Exchange</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA1.Q</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>data001</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Domestic Product, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Gross Domestic Product</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>42</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA11.Q</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>data002</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Industry Sector, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>43</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA12.Q</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>data003</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Services Sector, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>44</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA13.Q</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>data004</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Household Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Households</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>45</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA14.Q</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>data005</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Government Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Government Consumption</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>46</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA141.Q</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>data006</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Domestic Product per Capita, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Gross Domestic Product</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>47</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA142.Q</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>data007</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross National Income per Capita, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Gross National Income</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>48</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA143.Q</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>data008</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Household Final Consumption Expenditure per Capita, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Households</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>49</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA144.Q</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>data009</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Domestic Product per Capita, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Gross Domestic Product</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>50</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA145.Q</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>data010</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross National Income per Capita, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Gross National Income</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>51</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA146.Q</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>data011</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Household Final Consumption Expenditure per Capita, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Households</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>52</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA15.Q</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>data012</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Capital Formation, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Gross Capital Formation (Domestic Investment)</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>53</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA16.Q</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>data013</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Exports of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Exports of Goods and Services</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>54</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA17.Q</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>data014</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Imports of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Imports of Goods and Services</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>55</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA18.Q</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>data015</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Statistical Discrepancy, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Statistical Discrepancy</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>56</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA19.Q</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>data016</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Household Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Households</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>57</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA2.Q</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>data017</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Net Primary Income from Rest of the World, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Net Primary Income with the Rest of the World</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>58</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA21.Q</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>data018</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Capital Formation, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Gross Capital Formation (Domestic Investment)</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>59</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA22.Q</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>data019</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Exports of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Exports of Goods and Services</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>60</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA23.Q</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>data020</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Imports of Goods and Services, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Imports of Goods and Services</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>61</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA24.Q</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>data021</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Statistical Discrepancy, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Statistical Discrepancy</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>62</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA26.Q</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>data022</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross National Income, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Gross National Income</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>63</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA29.Q</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>data023</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Palay, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>64</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA2a.Q</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>data024</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Government Final Consumption Expenditure, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Government Consumption</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>65</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA3.Q</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>data025</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross National Income, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Gross National Income</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>66</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA31.Q</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>data026</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Coconut including Copra, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>67</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA32.Q</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>data027</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Sugarcane including Muscovado Sugar making in the Farm, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>68</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA33.Q</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>data028</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Banana, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>69</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA34.Q</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>data029</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Other Agricultural Crops, n.e.c, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>70</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA35.Q</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>data030</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Livestock, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>71</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA36.Q</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>data031</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Poultry and Egg Production, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>72</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA37.Q</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>data032</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Support Activities to Agriculture, Forestry and Fishing, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>73</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA38.Q</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>data033</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Fishing and Aquaculture, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Fishing and Aquaculture</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>74</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA39.Q</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>data034</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Forestry and Logging, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Forestry and Logging</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>75</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA3a.Q</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>data035</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Corn, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>76</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA4.Q</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>data036</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Domestic Product, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Gross Domestic Product</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>77</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA42.Q</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>data037</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Palay, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>78</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA43.Q</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>data038</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Corn, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>79</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA44.Q</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>data039</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Coconut including Copra, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>80</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA45.Q</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>data040</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Sugarcane including Muscovado Sugar making in the Farm, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>81</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA46.Q</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>data041</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Banana, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>82</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA47.Q</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>data042</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Other Agricultural Crops, n.e.c, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>83</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA48.Q</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>data043</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Livestock, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>84</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA49.Q</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>data044</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Poultry and Egg Production, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>85</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA5.Q</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>data045</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Net Primary Income from Rest of the World, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Net Primary Income with the Rest of the World</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>86</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA51.Q</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>data046</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Fishing and Aquaculture, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Fishing and Aquaculture</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>87</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA52.Q</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>data047</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Forestry and Logging, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Forestry and Logging</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>88</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA53.Q</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>data048</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Mining and Quarrying, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>1981-Q3</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Mining and Quarrying</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>89</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA54.Q</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>data049</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Manufacturing, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>1981-Q3</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>90</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA55.Q</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>data050</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Construction, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>91</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA56.Q</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>data051</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Electricity, Steam, Water and Waste Management, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>1981-Q3</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Electricity, Gas and Water</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>92</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA57.Q</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>data052</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Mining and Quarrying, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>1981-Q2</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Mining and Quarrying</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>93</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA58.Q</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>data053</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Manufacturing, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>1981-Q2</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>94</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA59.Q</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>data054</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Construction, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>95</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA5a.Q</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>data055</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Support Activities to Agriculture, Forestry and Fishing, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>96</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA62.Q</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>data056</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>1981-Q4</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>97</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA63.Q</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>data057</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Financial and Insurance Activities, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>1982-Q1</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Financial and Insurance Activities</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>98</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA65.Q</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>data058</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Other Services, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Other Service Activities and Activities of Households as Employers</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>99</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA66.Q</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>data059</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Value Added, Public Administration and Defense, Compulsory Social Activities, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>1982-Q1</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Public Administration, Defence, Compulsory Social Security</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>100</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA68.Q</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>data060</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>1981-Q3</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Wholesale and Retail Trade, Repair of Motor Vehicles and Motorcycles</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>101</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA69.Q</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>data061</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Financial and Insurance Activities, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>1981-Q4</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Financial and Insurance Activities</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>102</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA6a.Q</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>data062</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Electricity, Steam, Water and Waste Management, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>1981-Q2</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Electricity, Gas and Water</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>103</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA71.Q</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>data063</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Other Services, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Other Service Activities and Activities of Households as Employers</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>104</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA72.Q</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>data064</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Public Administration and Defense, Compulsory Social Activities, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>1981-Q4</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Public Administration, Defence, Compulsory Social Security</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>105</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA73.Q</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>data065</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (Fixed Investment)</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>106</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA74.Q</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>data066</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Construction, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>107</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA75.Q</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>data067</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Durable Equipment, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Machinery and Equipment</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>108</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA76.Q</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>data068</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Fixed Capital Formation, Breeding Stock and Orchard Development, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Cultivated Biological Resources</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>109</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA77.Q</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>data069</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Changes in Inventories, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Changes in Inventories</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>110</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA78.Q</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>data070</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Fixed Capital Formation, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (Fixed Investment)</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>111</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA79.Q</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>data071</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Fixed Capital Formation, Construction, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>112</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA8.Q</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>data072</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Industry Sector, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>113</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA81.Q</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>data073</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Fixed Capital Formation, Breeding Stock and Orchard Development, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Cultivated Biological Resources</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>114</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA82.Q</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>data074</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Changes in Inventories, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Changes in Inventories</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>115</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA8a.Q</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>data075</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Real Gross Fixed Capital Formation, Durable Equipment, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Machinery and Equipment</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>116</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Q566PHSNIA9.Q</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>data076</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Philippines National Statistics, National Accounts, Nominal Gross Value Added, Services Sector, Not Seasonally Adjusted, Unit: Millions of Philippine Peso, Source: Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Millions of Philippine Peso</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>117</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>Philippine Statistics Authority</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>National Accounts</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Q566PSI.Q</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>data077</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Philippines Share Prices and Stock Indexes, Composite Index, Close Price, Not Seasonally Adjusted, Unit: Index: 1985.01.02=100, Source: Philippine Stock Exchange</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>1986-Q1</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Index: 1985.01.02=100</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Composite Index, Close Price</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>118</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>Philippine Stock Exchange</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>Philippine Stock Exchange</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>INTLINE</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>W566PSI.W</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>DB_W_0001</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>data001</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Philippines Share Prices and Stock Indexes, Composite Index, Close Price, Not Seasonally Adjusted, Unit: Index: 1985.01.02=100, Source: Philippine Stock Exchange</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>1986-01-04</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>2022-05-14</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Index: 1985.01.02=100</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Composite Index, Close Price</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>119</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>Philippine Stock Exchange</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Philippine Stock Exchange</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/INTLINE/output/INTLINE_keytest.xlsx
+++ b/INTLINE/output/INTLINE_keytest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,12 +454,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>M566PHSRPI1.M</t>
+          <t>Q566BSPGVDX1.Q</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DB_M_0001</t>
+          <t>DB_Q_0001</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -469,7 +469,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Philippines National Statistics, Prices, Retail Price Index, RPI: Total, Not Seasonally Adjusted, Unit: Index: 2012=100, Source: Philippine Statistics Authority</t>
+          <t>Philippines Financial Statistics, External Sector, Gross External Debt (BPM6), Not Seasonally Adjusted, Unit: Millions of U.S. Dollar, Source: Central Bank of the Philippines</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -479,22 +479,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1979-01</t>
+          <t>1990-Q4</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Index: 2012=100</t>
+          <t>Millions of U.S. Dollar</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -507,12 +507,12 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Philippine Statistics Authority</t>
+          <t>Central Bank of the Philippines</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Prices</t>
+          <t>External Sector</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -532,12 +532,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>M566PHSWPI1.M</t>
+          <t>Q566BSPGVDX2.Q</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DB_M_0001</t>
+          <t>DB_Q_0001</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Philippines National Statistics, Prices, Wholesale Price Index, WPI: Total, Not Seasonally Adjusted, Unit: Index: 2012=100, Source: Philippine Statistics Authority</t>
+          <t>Philippines Financial Statistics, External Sector, Gross External Debt, Medium and Long Term (BPM6), Not Seasonally Adjusted, Unit: Millions of U.S. Dollar, Source: Central Bank of the Philippines</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -557,27 +557,27 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1998-01</t>
+          <t>1990-Q4</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Index: 2012=100</t>
+          <t>Millions of U.S. Dollar</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Long-Term</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -585,12 +585,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Philippine Statistics Authority</t>
+          <t>Central Bank of the Philippines</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Prices</t>
+          <t>External Sector</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -610,12 +610,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>M566PHSWPI2.M</t>
+          <t>Q566BSPGVDX3.Q</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DB_M_0001</t>
+          <t>DB_Q_0001</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Philippines National Statistics, Prices, Wholesale Price Index, WPI: Food, Not Seasonally Adjusted, Unit: Index: 2012=100, Source: Philippine Statistics Authority</t>
+          <t>Philippines Financial Statistics, External Sector, Gross External Debt, Short Term (BPM6), Not Seasonally Adjusted, Unit: Millions of U.S. Dollar, Source: Central Bank of the Philippines</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -635,27 +635,27 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1998-01</t>
+          <t>1990-Q4</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Index: 2012=100</t>
+          <t>Millions of U.S. Dollar</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Food, Beverages and Tobacco</t>
+          <t>Short-Term</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -663,12 +663,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Philippine Statistics Authority</t>
+          <t>Central Bank of the Philippines</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Prices</t>
+          <t>External Sector</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>M566PHSWPI3.M</t>
+          <t>Q566BSPGVDX5.Q</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DB_M_0001</t>
+          <t>DB_Q_0001</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Philippines National Statistics, Prices, Wholesale Price Index, WPI: Beverages and Tobacco, Not Seasonally Adjusted, Unit: Index: 2012=100, Source: Philippine Statistics Authority</t>
+          <t>Philippines Financial Statistics, External Sector, Gross External Debt, Short Term, Non Trade (BPM6), Not Seasonally Adjusted, Unit: Millions of U.S. Dollar, Source: Central Bank of the Philippines</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -713,27 +713,27 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1998-01</t>
+          <t>1990-Q4</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Index: 2012=100</t>
+          <t>Millions of U.S. Dollar</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Food, Beverages and Tobacco</t>
+          <t>Short-Term</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -741,405 +741,15 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Philippine Statistics Authority</t>
+          <t>Central Bank of the Philippines</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Prices</t>
+          <t>External Sector</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
-        <is>
-          <t>Not Seasonally Adjusted</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>INTLINE</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>M566PHSWPI4.M</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>DB_M_0001</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>data005</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Philippines National Statistics, Prices, Wholesale Price Index, WPI: Crude Materials, Inedible except Fuels, Not Seasonally Adjusted, Unit: Index: 2012=100, Source: Philippine Statistics Authority</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Philippines</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1998-01</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2022-03</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Index: 2012=100</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Other Category N.E.C.</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Philippine Statistics Authority</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Prices</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Not Seasonally Adjusted</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>INTLINE</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>M566PHSWPI5.M</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>DB_M_0001</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>data006</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Philippines National Statistics, Prices, Wholesale Price Index, WPI: Mineral Fuels, Lubricants and Related Materials, Not Seasonally Adjusted, Unit: Index: 2012=100, Source: Philippine Statistics Authority</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Philippines</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1998-01</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2022-03</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Index: 2012=100</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Fuel and Power</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>6</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Philippine Statistics Authority</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Prices</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Not Seasonally Adjusted</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>INTLINE</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>M566PHSWPI6.M</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>DB_M_0001</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>data007</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Philippines National Statistics, Prices, Wholesale Price Index, WPI: Chemicals, Including Animal and Vegetable Oils and Fats, Not Seasonally Adjusted, Unit: Index: 2012=100, Source: Philippine Statistics Authority</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Philippines</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1998-01</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2022-03</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Index: 2012=100</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Chemicals and Chemical Products</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>7</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Philippine Statistics Authority</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Prices</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Not Seasonally Adjusted</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>INTLINE</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>M566PHSWPI7.M</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>DB_M_0001</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>data008</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Philippines National Statistics, Prices, Wholesale Price Index, WPI: Manufactured Goods Classified Chiefly by Materials, Not Seasonally Adjusted, Unit: Index: 2012=100, Source: Philippine Statistics Authority</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Philippines</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1998-01</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2022-03</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Index: 2012=100</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Manufactured Products</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>8</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Philippine Statistics Authority</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Prices</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Not Seasonally Adjusted</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>INTLINE</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>M566PHSWPI8.M</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>DB_M_0001</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>data009</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Philippines National Statistics, Prices, Wholesale Price Index, WPI: Machinery and Transport Equipment, Not Seasonally Adjusted, Unit: Index: 2012=100, Source: Philippine Statistics Authority</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Philippines</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1998-01</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>2022-03</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Index: 2012=100</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Transport, Equipment and Parts</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>9</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Philippine Statistics Authority</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Prices</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
         <is>
           <t>Not Seasonally Adjusted</t>
         </is>

--- a/INTLINE/output/INTLINE_keytest.xlsx
+++ b/INTLINE/output/INTLINE_keytest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="207">
   <si>
     <t>databank</t>
   </si>
@@ -178,6 +178,36 @@
     <t>Q578BOTBOP9.Q</t>
   </si>
   <si>
+    <t>Q578BOTVGDDF1.Q</t>
+  </si>
+  <si>
+    <t>Q578BOTVGDDF2.Q</t>
+  </si>
+  <si>
+    <t>Q578BOTVGDDF6.Q</t>
+  </si>
+  <si>
+    <t>Q578BOTVGDDF62.Q</t>
+  </si>
+  <si>
+    <t>Q578BOTVGDDF65.Q</t>
+  </si>
+  <si>
+    <t>Q578BOTVGDDF66.Q</t>
+  </si>
+  <si>
+    <t>Q578BOTVGDDF67.Q</t>
+  </si>
+  <si>
+    <t>Q578BOTVGDDF72.Q</t>
+  </si>
+  <si>
+    <t>Q578BOTVGDDF73.Q</t>
+  </si>
+  <si>
+    <t>Q578BOTVLTW5.Q</t>
+  </si>
+  <si>
     <t>DB_A_0001</t>
   </si>
   <si>
@@ -280,6 +310,36 @@
     <t>data032</t>
   </si>
   <si>
+    <t>data033</t>
+  </si>
+  <si>
+    <t>data034</t>
+  </si>
+  <si>
+    <t>data035</t>
+  </si>
+  <si>
+    <t>data036</t>
+  </si>
+  <si>
+    <t>data037</t>
+  </si>
+  <si>
+    <t>data038</t>
+  </si>
+  <si>
+    <t>data039</t>
+  </si>
+  <si>
+    <t>data040</t>
+  </si>
+  <si>
+    <t>data041</t>
+  </si>
+  <si>
+    <t>data042</t>
+  </si>
+  <si>
     <t>Thailand National Statistics, Demographic Indicators, Population at year end, Not Seasonally Adjusted, Unit: Thousands of Persons, Source: Bank of Thailand</t>
   </si>
   <si>
@@ -394,6 +454,36 @@
     <t>Thailand National Statistics, External Sector, Balance of Payments, Current Account, Services, Transport, Receipts (BPM6), Not Seasonally Adjusted, Unit: Millions of Thai Baht, Source: Bank of Thailand</t>
   </si>
   <si>
+    <t>Thailand National Statistics, External Sector, Gross External Debt, General Government (BPM6), Not Seasonally Adjusted, Unit: Millions of U.S. Dollar, Source: Bank of Thailand</t>
+  </si>
+  <si>
+    <t>Thailand National Statistics, External Sector, Gross External Debt, General Government, Short Term (BPM6), Not Seasonally Adjusted, Unit: Millions of U.S. Dollar, Source: Bank of Thailand</t>
+  </si>
+  <si>
+    <t>Thailand National Statistics, External Sector, Gross External Debt, General Government, Long Term (BPM6), Not Seasonally Adjusted, Unit: Millions of U.S. Dollar, Source: Bank of Thailand</t>
+  </si>
+  <si>
+    <t>Thailand National Statistics, External Sector, Gross External Debt, Debt Service Payments (BPM6), Not Seasonally Adjusted, Unit: Millions of U.S. Dollar, Source: Bank of Thailand</t>
+  </si>
+  <si>
+    <t>Thailand National Statistics, External Sector, Gross External Debt, Debt Service Payments, Public Sector (BPM6), Not Seasonally Adjusted, Unit: Millions of U.S. Dollar, Source: Bank of Thailand</t>
+  </si>
+  <si>
+    <t>Thailand National Statistics, External Sector, Gross External Debt, Debt Service Payments, Public Sector, Principal (BPM6), Not Seasonally Adjusted, Unit: Millions of U.S. Dollar, Source: Bank of Thailand</t>
+  </si>
+  <si>
+    <t>Thailand National Statistics, External Sector, Gross External Debt, Debt Service Payments, Public Sector, Interest (BPM6), Not Seasonally Adjusted, Unit: Millions of U.S. Dollar, Source: Bank of Thailand</t>
+  </si>
+  <si>
+    <t>Thailand National Statistics, External Sector, Gross External Debt, Debt Service Ratio (BPM6), Not Seasonally Adjusted, Unit: Percentage, Source: Bank of Thailand</t>
+  </si>
+  <si>
+    <t>Thailand National Statistics, External Sector, Gross External Debt, Debt Service Ratio, Public Sector (BPM6), Not Seasonally Adjusted, Unit: Percentage, Source: Bank of Thailand</t>
+  </si>
+  <si>
+    <t>Thailand National Statistics, Labour Market, Average Monthly Wage, Manufacturing, Not Seasonally Adjusted, Unit: Thai Baht per Month, Source: Bank of Thailand</t>
+  </si>
+  <si>
     <t>Thailand</t>
   </si>
   <si>
@@ -415,6 +505,12 @@
     <t>1969-Q1</t>
   </si>
   <si>
+    <t>1999-Q1</t>
+  </si>
+  <si>
+    <t>1997-Q1</t>
+  </si>
+  <si>
     <t>2021-Q4</t>
   </si>
   <si>
@@ -424,6 +520,15 @@
     <t>Millions of Thai Baht</t>
   </si>
   <si>
+    <t>Millions of U.S. Dollar</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Thai Baht per Month</t>
+  </si>
+  <si>
     <t>Population</t>
   </si>
   <si>
@@ -497,6 +602,24 @@
   </si>
   <si>
     <t>Other Investment</t>
+  </si>
+  <si>
+    <t>General Government</t>
+  </si>
+  <si>
+    <t>Short-Term</t>
+  </si>
+  <si>
+    <t>Long-Term</t>
+  </si>
+  <si>
+    <t>Debt Service Payments</t>
+  </si>
+  <si>
+    <t>Principle</t>
+  </si>
+  <si>
+    <t>Interest</t>
   </si>
   <si>
     <t>Bank of Thailand</t>
@@ -869,7 +992,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -933,19 +1056,19 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H2" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="I2">
         <v>1948</v>
@@ -954,22 +1077,22 @@
         <v>2020</v>
       </c>
       <c r="K2" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="L2" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O2" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="P2" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -983,19 +1106,19 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H3" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="I3">
         <v>1977</v>
@@ -1004,22 +1127,22 @@
         <v>2021</v>
       </c>
       <c r="K3" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="L3" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="M3">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1033,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H4" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="I4">
         <v>1977</v>
@@ -1054,22 +1177,22 @@
         <v>2021</v>
       </c>
       <c r="K4" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="L4" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="M4">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O4" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="P4" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1083,19 +1206,19 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H5" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="I5">
         <v>1977</v>
@@ -1104,22 +1227,22 @@
         <v>2021</v>
       </c>
       <c r="K5" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="L5" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="M5">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O5" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="P5" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1133,19 +1256,19 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H6" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="I6">
         <v>1977</v>
@@ -1154,22 +1277,22 @@
         <v>2021</v>
       </c>
       <c r="K6" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="L6" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="M6">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O6" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1183,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H7" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="I7">
         <v>1977</v>
@@ -1204,22 +1327,22 @@
         <v>2021</v>
       </c>
       <c r="K7" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="L7" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="M7">
         <v>6</v>
       </c>
       <c r="N7" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O7" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1233,43 +1356,43 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H8" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I8" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="J8" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K8" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L8" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="M8">
         <v>7</v>
       </c>
       <c r="N8" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O8" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P8" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1283,43 +1406,43 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I9" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="J9" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K9" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L9" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="M9">
         <v>8</v>
       </c>
       <c r="N9" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O9" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P9" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1333,43 +1456,43 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H10" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="J10" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K10" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L10" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="M10">
         <v>9</v>
       </c>
       <c r="N10" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O10" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P10" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1383,43 +1506,43 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H11" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="J11" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K11" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L11" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="M11">
         <v>10</v>
       </c>
       <c r="N11" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O11" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1433,43 +1556,43 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H12" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L12" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="M12">
         <v>11</v>
       </c>
       <c r="N12" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O12" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P12" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1483,43 +1606,43 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H13" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="M13">
         <v>12</v>
       </c>
       <c r="N13" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O13" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1533,43 +1656,43 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H14" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="M14">
         <v>13</v>
       </c>
       <c r="N14" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O14" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P14" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1583,43 +1706,43 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G15" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H15" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I15" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="M15">
         <v>14</v>
       </c>
       <c r="N15" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O15" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P15" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1633,43 +1756,43 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I16" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="J16" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="M16">
         <v>15</v>
       </c>
       <c r="N16" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O16" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P16" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1683,43 +1806,43 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="G17" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H17" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I17" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="J17" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="M17">
         <v>16</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O17" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P17" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1733,43 +1856,43 @@
         <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="G18" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H18" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I18" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="J18" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K18" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="M18">
         <v>17</v>
       </c>
       <c r="N18" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O18" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1783,43 +1906,43 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H19" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I19" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="J19" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K19" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="M19">
         <v>18</v>
       </c>
       <c r="N19" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O19" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P19" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1833,43 +1956,43 @@
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="G20" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H20" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I20" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="J20" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K20" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="M20">
         <v>19</v>
       </c>
       <c r="N20" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O20" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P20" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1883,43 +2006,43 @@
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="G21" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H21" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I21" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="J21" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K21" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="M21">
         <v>20</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O21" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P21" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1933,43 +2056,43 @@
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="G22" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H22" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I22" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="J22" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K22" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L22" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="M22">
         <v>21</v>
       </c>
       <c r="N22" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O22" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1983,43 +2106,43 @@
         <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="G23" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H23" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I23" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="J23" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K23" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L23" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="M23">
         <v>22</v>
       </c>
       <c r="N23" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O23" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P23" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2033,43 +2156,43 @@
         <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="G24" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H24" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I24" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="J24" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K24" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L24" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="M24">
         <v>23</v>
       </c>
       <c r="N24" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O24" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P24" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2083,43 +2206,43 @@
         <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="G25" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H25" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I25" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="J25" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K25" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L25" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="M25">
         <v>24</v>
       </c>
       <c r="N25" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O25" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P25" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2133,43 +2256,43 @@
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="G26" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H26" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I26" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="J26" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K26" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L26" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="M26">
         <v>25</v>
       </c>
       <c r="N26" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O26" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P26" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2183,43 +2306,43 @@
         <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G27" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H27" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I27" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="J27" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K27" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L27" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="M27">
         <v>26</v>
       </c>
       <c r="N27" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O27" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P27" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2233,43 +2356,43 @@
         <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="G28" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H28" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I28" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="J28" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K28" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L28" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="M28">
         <v>27</v>
       </c>
       <c r="N28" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O28" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2283,43 +2406,43 @@
         <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="G29" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H29" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I29" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="J29" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K29" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L29" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="M29">
         <v>28</v>
       </c>
       <c r="N29" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O29" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P29" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2333,43 +2456,43 @@
         <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G30" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H30" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I30" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="J30" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K30" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L30" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="M30">
         <v>29</v>
       </c>
       <c r="N30" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O30" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2383,43 +2506,43 @@
         <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F31" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="G31" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I31" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="J31" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K31" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L31" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="M31">
         <v>30</v>
       </c>
       <c r="N31" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O31" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P31" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2433,43 +2556,43 @@
         <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="G32" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H32" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I32" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="J32" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K32" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L32" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="M32">
         <v>31</v>
       </c>
       <c r="N32" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O32" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P32" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2483,43 +2606,43 @@
         <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F33" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="G33" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H33" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I33" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="J33" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K33" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L33" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="M33">
         <v>32</v>
       </c>
       <c r="N33" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O33" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P33" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2533,43 +2656,43 @@
         <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F34" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="G34" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H34" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I34" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="J34" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K34" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L34" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="M34">
         <v>33</v>
       </c>
       <c r="N34" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O34" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2583,43 +2706,43 @@
         <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F35" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="G35" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H35" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I35" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="J35" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K35" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L35" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="M35">
         <v>34</v>
       </c>
       <c r="N35" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O35" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P35" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2633,43 +2756,43 @@
         <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F36" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="G36" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I36" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="J36" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K36" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L36" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="M36">
         <v>35</v>
       </c>
       <c r="N36" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O36" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P36" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2683,43 +2806,43 @@
         <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F37" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="G37" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H37" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I37" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="J37" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K37" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L37" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="M37">
         <v>36</v>
       </c>
       <c r="N37" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O37" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P37" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2733,43 +2856,43 @@
         <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F38" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="G38" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H38" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I38" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="J38" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K38" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L38" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="M38">
         <v>37</v>
       </c>
       <c r="N38" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O38" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P38" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2783,43 +2906,543 @@
         <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F39" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="G39" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I39" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="J39" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K39" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L39" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="M39">
         <v>38</v>
       </c>
       <c r="N39" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O39" t="s">
+        <v>205</v>
+      </c>
+      <c r="P39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" t="s">
+        <v>146</v>
+      </c>
+      <c r="G40" t="s">
+        <v>156</v>
+      </c>
+      <c r="H40" t="s">
+        <v>158</v>
+      </c>
+      <c r="I40" t="s">
+        <v>163</v>
+      </c>
+      <c r="J40" t="s">
+        <v>165</v>
+      </c>
+      <c r="K40" t="s">
+        <v>168</v>
+      </c>
+      <c r="L40" t="s">
+        <v>196</v>
+      </c>
+      <c r="M40">
+        <v>39</v>
+      </c>
+      <c r="N40" t="s">
+        <v>202</v>
+      </c>
+      <c r="O40" t="s">
+        <v>205</v>
+      </c>
+      <c r="P40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" t="s">
+        <v>156</v>
+      </c>
+      <c r="H41" t="s">
+        <v>158</v>
+      </c>
+      <c r="I41" t="s">
+        <v>163</v>
+      </c>
+      <c r="J41" t="s">
+        <v>165</v>
+      </c>
+      <c r="K41" t="s">
+        <v>168</v>
+      </c>
+      <c r="L41" t="s">
+        <v>197</v>
+      </c>
+      <c r="M41">
+        <v>40</v>
+      </c>
+      <c r="N41" t="s">
+        <v>202</v>
+      </c>
+      <c r="O41" t="s">
+        <v>205</v>
+      </c>
+      <c r="P41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" t="s">
+        <v>148</v>
+      </c>
+      <c r="G42" t="s">
+        <v>156</v>
+      </c>
+      <c r="H42" t="s">
+        <v>158</v>
+      </c>
+      <c r="I42" t="s">
+        <v>163</v>
+      </c>
+      <c r="J42" t="s">
+        <v>165</v>
+      </c>
+      <c r="K42" t="s">
+        <v>168</v>
+      </c>
+      <c r="L42" t="s">
+        <v>198</v>
+      </c>
+      <c r="M42">
+        <v>41</v>
+      </c>
+      <c r="N42" t="s">
+        <v>202</v>
+      </c>
+      <c r="O42" t="s">
+        <v>205</v>
+      </c>
+      <c r="P42" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" t="s">
+        <v>156</v>
+      </c>
+      <c r="H43" t="s">
+        <v>158</v>
+      </c>
+      <c r="I43" t="s">
+        <v>163</v>
+      </c>
+      <c r="J43" t="s">
+        <v>165</v>
+      </c>
+      <c r="K43" t="s">
+        <v>168</v>
+      </c>
+      <c r="L43" t="s">
+        <v>199</v>
+      </c>
+      <c r="M43">
+        <v>42</v>
+      </c>
+      <c r="N43" t="s">
+        <v>202</v>
+      </c>
+      <c r="O43" t="s">
+        <v>205</v>
+      </c>
+      <c r="P43" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" t="s">
+        <v>150</v>
+      </c>
+      <c r="G44" t="s">
+        <v>156</v>
+      </c>
+      <c r="H44" t="s">
+        <v>158</v>
+      </c>
+      <c r="I44" t="s">
+        <v>163</v>
+      </c>
+      <c r="J44" t="s">
+        <v>165</v>
+      </c>
+      <c r="K44" t="s">
+        <v>168</v>
+      </c>
+      <c r="L44" t="s">
+        <v>199</v>
+      </c>
+      <c r="M44">
+        <v>43</v>
+      </c>
+      <c r="N44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O44" t="s">
+        <v>205</v>
+      </c>
+      <c r="P44" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45" t="s">
+        <v>151</v>
+      </c>
+      <c r="G45" t="s">
+        <v>156</v>
+      </c>
+      <c r="H45" t="s">
+        <v>158</v>
+      </c>
+      <c r="I45" t="s">
+        <v>163</v>
+      </c>
+      <c r="J45" t="s">
+        <v>165</v>
+      </c>
+      <c r="K45" t="s">
+        <v>168</v>
+      </c>
+      <c r="L45" t="s">
+        <v>200</v>
+      </c>
+      <c r="M45">
+        <v>44</v>
+      </c>
+      <c r="N45" t="s">
+        <v>202</v>
+      </c>
+      <c r="O45" t="s">
+        <v>205</v>
+      </c>
+      <c r="P45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" t="s">
+        <v>152</v>
+      </c>
+      <c r="G46" t="s">
+        <v>156</v>
+      </c>
+      <c r="H46" t="s">
+        <v>158</v>
+      </c>
+      <c r="I46" t="s">
+        <v>163</v>
+      </c>
+      <c r="J46" t="s">
+        <v>165</v>
+      </c>
+      <c r="K46" t="s">
+        <v>168</v>
+      </c>
+      <c r="L46" t="s">
+        <v>201</v>
+      </c>
+      <c r="M46">
+        <v>45</v>
+      </c>
+      <c r="N46" t="s">
+        <v>202</v>
+      </c>
+      <c r="O46" t="s">
+        <v>205</v>
+      </c>
+      <c r="P46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" t="s">
+        <v>153</v>
+      </c>
+      <c r="G47" t="s">
+        <v>156</v>
+      </c>
+      <c r="H47" t="s">
+        <v>158</v>
+      </c>
+      <c r="I47" t="s">
+        <v>163</v>
+      </c>
+      <c r="J47" t="s">
+        <v>165</v>
+      </c>
+      <c r="K47" t="s">
+        <v>169</v>
+      </c>
+      <c r="L47" t="s">
+        <v>199</v>
+      </c>
+      <c r="M47">
+        <v>46</v>
+      </c>
+      <c r="N47" t="s">
+        <v>202</v>
+      </c>
+      <c r="O47" t="s">
+        <v>205</v>
+      </c>
+      <c r="P47" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" t="s">
+        <v>154</v>
+      </c>
+      <c r="G48" t="s">
+        <v>156</v>
+      </c>
+      <c r="H48" t="s">
+        <v>158</v>
+      </c>
+      <c r="I48" t="s">
+        <v>163</v>
+      </c>
+      <c r="J48" t="s">
+        <v>165</v>
+      </c>
+      <c r="K48" t="s">
+        <v>169</v>
+      </c>
+      <c r="L48" t="s">
+        <v>199</v>
+      </c>
+      <c r="M48">
+        <v>47</v>
+      </c>
+      <c r="N48" t="s">
+        <v>202</v>
+      </c>
+      <c r="O48" t="s">
+        <v>205</v>
+      </c>
+      <c r="P48" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G49" t="s">
+        <v>156</v>
+      </c>
+      <c r="H49" t="s">
+        <v>158</v>
+      </c>
+      <c r="I49" t="s">
         <v>164</v>
       </c>
-      <c r="P39" t="s">
-        <v>165</v>
+      <c r="J49" t="s">
+        <v>165</v>
+      </c>
+      <c r="K49" t="s">
+        <v>170</v>
+      </c>
+      <c r="L49" t="s">
+        <v>172</v>
+      </c>
+      <c r="M49">
+        <v>48</v>
+      </c>
+      <c r="N49" t="s">
+        <v>202</v>
+      </c>
+      <c r="O49" t="s">
+        <v>204</v>
+      </c>
+      <c r="P49" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
